--- a/Report Helper Documents/Testing.xlsx
+++ b/Report Helper Documents/Testing.xlsx
@@ -5,19 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4022S/EEE4022S_Salinity_JCP24-03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4022S/EEE4022S_Salinity_JCP24-03/Report Helper Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB37FB3C-8F50-F944-AEC1-D61D69C15F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC1CB0-3F16-D443-BE06-53574AD8904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Range" sheetId="1" r:id="rId1"/>
     <sheet name="ADC Average" sheetId="2" r:id="rId2"/>
     <sheet name="Calib measuring range" sheetId="4" r:id="rId3"/>
     <sheet name="Resistance Measuring accuracy" sheetId="3" r:id="rId4"/>
+    <sheet name="Voltage sweep" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Voltage sweep'!$G$3:$G$42</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Voltage sweep'!$H$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Voltage sweep'!$H$3:$H$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>VDD</t>
   </si>
@@ -115,6 +143,39 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>DAC Input</t>
+  </si>
+  <si>
+    <t>DAC Output</t>
+  </si>
+  <si>
+    <t>Calib x 11</t>
+  </si>
+  <si>
+    <t>Measurement x11</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>0,0,9,10;20,56,43,71;40,157,113,143;60,254,153,187;80,321,187,239;100,392,233,299;120,465,268,362;140,549,307,425;160,633,350,487;180,710,397,553;200,789,447,617;220,871,489,680;240,952,543,743;260,1028,590,807;280,1107,641,871;300,1190,686,932;320,1271,738,999;340,1355,780,1061;360,1437,827,1125;380,1515,867,1189;400,1589,912,1253;420,1667,966,1315;440,1746,1006,1380;460,1827,1060,1439;480,1912,1108,1509;500,1993,1143,1572;520,2072,1195,1632;540,2151,1231,1699;560,2225,1289,1763;580,2312,1324,1826;600,2394,1371,1889;620,2473,1422,1951;640,2551,1471,2017;660,2634,1514,2078;680,2704,1564,2145;700,2805,1599,2208;720,2864,1648,2272;740,2943,1693,2331;760,3017,1740,2397;780,3121,1768,2461;</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Resistor test</t>
+  </si>
+  <si>
+    <t>0,0,9,9;20,56,44,72;40,164,113,143;60,252,153,187;80,321,187,239;100,392,233,300;120,466,268,363;140,549,307,426;160,633,350,488;180,710,395,553;200,790,447,618;220,873,490,680;240,950,543,742;260,1028,589,808;280,1107,642,871;300,1189,685,933;320,1271,738,999;340,1355,780,1060;360,1435,826,1125;380,1514,867,1190;400,1589,912,1254;420,1667,966,1315;440,1750,1006,1381;460,1827,1060,1440;480,1910,1107,1509;500,1991,1142,1571;520,2070,1194,1632;540,2151,1230,1699;560,2235,1289,1763;580,2310,1323,1826;600,2394,1368,1890;620,2474,1421,1951;640,2550,1471,2018;660,2641,1513,2079;680,2725,1563,2145;700,2797,1598,2208;720,2869,1648,2272;740,2940,1692,2331;760,3018,1740,2398;780,3123,1767,2461;</t>
+  </si>
 </sst>
 </file>
 
@@ -123,13 +184,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,9 +219,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2706,6 +2778,2038 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Calib</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs DAC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage sweep'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calib x 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Voltage sweep'!$G$3:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5128205128205125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13216117216117215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20307692307692304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25868131868131866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31589743589743585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37553113553113554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44241758241758239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51010989010989016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57216117216117213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63663003663003659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70351648351648344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76556776556776551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82842490842490835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89208791208791205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95816849816849814</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0242490842490843</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0919413919413918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1564102564102565</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.22007326007326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2805128205128204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3433699633699632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4102564102564104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4723076923076921</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5391941391941393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6044688644688643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6681318681318682</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7334065934065932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8010989010989011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9292307692307691</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9936996336996335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0549450549450547</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.128278388278388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1959706959706962</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2539926739926739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3120146520146516</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.432087912087912</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5167032967032967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Voltage sweep'!$H$3:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.2527472527472523E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5457875457875453E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1062271062271063E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12329670329670329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15069597069597071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18776556776556777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21597069597069596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24739926739926738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28205128205128205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31831501831501829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36021978021978018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39487179487179486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43758241758241756</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47465201465201462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51736263736263732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55201465201465205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5947252747252747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66564102564102556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69868131868131866</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73494505494505491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77846153846153843</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81069597069597066</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85421245421245418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89208791208791205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92029304029304027</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96219780219780215</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99120879120879124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0387545787545787</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.066153846153846</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1024175824175824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1451282051282052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1854212454212454</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2192673992673992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2595604395604394</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2877655677655677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3280586080586079</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3635164835164835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4021978021978021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4239560439560439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA4A-0F4B-A33F-3BE944F4DFF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="15865583"/>
+        <c:axId val="15876879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="15865583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>DAC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15876879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="15876879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Calib</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15865583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Measurement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs DAC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage sweep'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measurement x11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Voltage sweep'!$G$3:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5128205128205125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13216117216117215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20307692307692304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25868131868131866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31589743589743585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37553113553113554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44241758241758239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51010989010989016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57216117216117213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63663003663003659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70351648351648344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76556776556776551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82842490842490835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89208791208791205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95816849816849814</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0242490842490843</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0919413919413918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1564102564102565</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.22007326007326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2805128205128204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3433699633699632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4102564102564104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4723076923076921</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5391941391941393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6044688644688643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6681318681318682</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7334065934065932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8010989010989011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9292307692307691</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9936996336996335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0549450549450547</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.128278388278388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1959706959706962</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2539926739926739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3120146520146516</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.432087912087912</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5167032967032967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Voltage sweep'!$I$3:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.2527472527472523E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8021978021978018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11523809523809524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15069597069597071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19260073260073257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24175824175824176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29252747252747252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34329670329670331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39326007326007323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44564102564102559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49802197802197801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54798534798534804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59794871794871796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65113553113553102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70190476190476181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75186813186813173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80505494505494501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85421245421245418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90659340659340659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95897435897435901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0105494505494506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0597069597069597</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1128937728937729</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1604395604395605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.216043956043956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2660073260073259</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3151648351648351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3691575091575092</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4207326007326007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4715018315018313</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.523076923076923</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5722344322344322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6262271062271061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6753846153846153</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7793406593406593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8309157509157508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8784615384615382</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9324542124542123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.983223443223443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EAD-A74A-A2D5-E82D07A5CDD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1800597872"/>
+        <c:axId val="1800463408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1800597872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>DAC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800463408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1800463408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800597872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Measurement vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Calib</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage sweep'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measurement x11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Voltage sweep'!$H$3:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.2527472527472523E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5457875457875453E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1062271062271063E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12329670329670329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15069597069597071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18776556776556777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21597069597069596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24739926739926738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28205128205128205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31831501831501829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36021978021978018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39487179487179486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43758241758241756</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47465201465201462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51736263736263732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55201465201465205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5947252747252747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66564102564102556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69868131868131866</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73494505494505491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77846153846153843</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81069597069597066</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85421245421245418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89208791208791205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92029304029304027</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96219780219780215</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99120879120879124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0387545787545787</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.066153846153846</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1024175824175824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1451282051282052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1854212454212454</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2192673992673992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2595604395604394</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2877655677655677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3280586080586079</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3635164835164835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4021978021978021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4239560439560439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Voltage sweep'!$I$3:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.2527472527472523E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8021978021978018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11523809523809524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15069597069597071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19260073260073257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24175824175824176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29252747252747252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34329670329670331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39326007326007323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44564102564102559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49802197802197801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54798534798534804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59794871794871796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65113553113553102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70190476190476181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75186813186813173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80505494505494501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85421245421245418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90659340659340659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95897435897435901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0105494505494506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0597069597069597</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1128937728937729</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1604395604395605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.216043956043956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2660073260073259</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3151648351648351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3691575091575092</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4207326007326007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4715018315018313</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.523076923076923</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5722344322344322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6262271062271061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6753846153846153</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7793406593406593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8309157509157508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8784615384615382</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9324542124542123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.983223443223443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8568-BF42-B870-BF3CB9A06299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1834936864"/>
+        <c:axId val="16101775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1834936864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Calib</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16101775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16101775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834936864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2906,6 +5010,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4971,6 +7195,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5681,6 +9453,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202727</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>633423</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EDFD00-F86A-F2FA-6028-03ED0D324BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222447</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172594</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B71F62B-C74A-E3D3-3EE9-DCC543A2DD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647610F2-60C4-5F25-CC05-68CB629C6C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7059,7 +10944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D2C5D3-431B-3745-96C5-77D0D99F8462}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="176" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7154,7 +11039,7 @@
         <v>1.94</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:F19" si="1">(-$E$2+SQRT($E$2*$E$2-4*$D$2*($F$2-$C6)))/(2*$D$2)</f>
+        <f t="shared" ref="E6:E19" si="1">(-$E$2+SQRT($E$2*$E$2-4*$D$2*($F$2-$C6)))/(2*$D$2)</f>
         <v>1.0162370302966457</v>
       </c>
       <c r="F6">
@@ -7471,7 +11356,7 @@
         <v>0.02 1 1.21 1.52 1.88 2.26 2.68 3.42 3.85 4.84 5.59 6.72 7.49 8.2 9.9</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:E22" si="3">SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,C5:C19), ",",".")</f>
+        <f t="shared" ref="C22:D22" si="3">SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,C5:C19), ",",".")</f>
         <v>1.04 1.95 2.13 2.42 2.7 3.06 3.45 4.09 4.48 5.35 5.96 6.91 7.52 8.09 9.39</v>
       </c>
       <c r="D22" t="str">
@@ -7484,4 +11369,1285 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF9EF3-1AC3-AC4D-852C-E437797668DB}">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:E42">_xlfn.TEXTSPLIT(A3,",",";",TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <f>B3*3.3/1023</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>C3*3.3/4095</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:I18" si="0">D3*3.3/4095</f>
+        <v>7.2527472527472523E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2527472527472523E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <v>20</v>
+      </c>
+      <c r="C4" t="str">
+        <v>56</v>
+      </c>
+      <c r="D4" t="str">
+        <v>44</v>
+      </c>
+      <c r="E4" t="str">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F42" si="1">B4*3.3/1023</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:I42" si="2">C4*3.3/4095</f>
+        <v>4.5128205128205125E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5457875457875453E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8021978021978018E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <v>40</v>
+      </c>
+      <c r="C5" t="str">
+        <v>164</v>
+      </c>
+      <c r="D5" t="str">
+        <v>113</v>
+      </c>
+      <c r="E5" t="str">
+        <v>143</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13216117216117215</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1062271062271063E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11523809523809524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <v>60</v>
+      </c>
+      <c r="C6" t="str">
+        <v>252</v>
+      </c>
+      <c r="D6" t="str">
+        <v>153</v>
+      </c>
+      <c r="E6" t="str">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.20307692307692304</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12329670329670329</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15069597069597071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <v>80</v>
+      </c>
+      <c r="C7" t="str">
+        <v>321</v>
+      </c>
+      <c r="D7" t="str">
+        <v>187</v>
+      </c>
+      <c r="E7" t="str">
+        <v>239</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25868131868131866</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15069597069597071</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19260073260073257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <v>100</v>
+      </c>
+      <c r="C8" t="str">
+        <v>392</v>
+      </c>
+      <c r="D8" t="str">
+        <v>233</v>
+      </c>
+      <c r="E8" t="str">
+        <v>300</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.31589743589743585</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18776556776556777</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24175824175824176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <v>120</v>
+      </c>
+      <c r="C9" t="str">
+        <v>466</v>
+      </c>
+      <c r="D9" t="str">
+        <v>268</v>
+      </c>
+      <c r="E9" t="str">
+        <v>363</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37553113553113554</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21597069597069596</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29252747252747252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <v>140</v>
+      </c>
+      <c r="C10" t="str">
+        <v>549</v>
+      </c>
+      <c r="D10" t="str">
+        <v>307</v>
+      </c>
+      <c r="E10" t="str">
+        <v>426</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.44241758241758239</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24739926739926738</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34329670329670331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <v>160</v>
+      </c>
+      <c r="C11" t="str">
+        <v>633</v>
+      </c>
+      <c r="D11" t="str">
+        <v>350</v>
+      </c>
+      <c r="E11" t="str">
+        <v>488</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.51010989010989016</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39326007326007323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <v>180</v>
+      </c>
+      <c r="C12" t="str">
+        <v>710</v>
+      </c>
+      <c r="D12" t="str">
+        <v>395</v>
+      </c>
+      <c r="E12" t="str">
+        <v>553</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57216117216117213</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31831501831501829</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44564102564102559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <v>200</v>
+      </c>
+      <c r="C13" t="str">
+        <v>790</v>
+      </c>
+      <c r="D13" t="str">
+        <v>447</v>
+      </c>
+      <c r="E13" t="str">
+        <v>618</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.63663003663003659</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36021978021978018</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49802197802197801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <v>220</v>
+      </c>
+      <c r="C14" t="str">
+        <v>873</v>
+      </c>
+      <c r="D14" t="str">
+        <v>490</v>
+      </c>
+      <c r="E14" t="str">
+        <v>680</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.70351648351648344</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39487179487179486</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54798534798534804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <v>240</v>
+      </c>
+      <c r="C15" t="str">
+        <v>950</v>
+      </c>
+      <c r="D15" t="str">
+        <v>543</v>
+      </c>
+      <c r="E15" t="str">
+        <v>742</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.76556776556776551</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43758241758241756</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59794871794871796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <v>260</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1028</v>
+      </c>
+      <c r="D16" t="str">
+        <v>589</v>
+      </c>
+      <c r="E16" t="str">
+        <v>808</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82842490842490835</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47465201465201462</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.65113553113553102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <v>280</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1107</v>
+      </c>
+      <c r="D17" t="str">
+        <v>642</v>
+      </c>
+      <c r="E17" t="str">
+        <v>871</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89208791208791205</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51736263736263732</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70190476190476181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <v>300</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1189</v>
+      </c>
+      <c r="D18" t="str">
+        <v>685</v>
+      </c>
+      <c r="E18" t="str">
+        <v>933</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.95816849816849814</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55201465201465205</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75186813186813173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <v>320</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1271</v>
+      </c>
+      <c r="D19" t="str">
+        <v>738</v>
+      </c>
+      <c r="E19" t="str">
+        <v>999</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.032258064516129</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0242490842490843</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5947252747252747</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.80505494505494501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <v>340</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1355</v>
+      </c>
+      <c r="D20" t="str">
+        <v>780</v>
+      </c>
+      <c r="E20" t="str">
+        <v>1060</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>1.096774193548387</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0919413919413918</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.85421245421245418</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <v>360</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1435</v>
+      </c>
+      <c r="D21" t="str">
+        <v>826</v>
+      </c>
+      <c r="E21" t="str">
+        <v>1125</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1612903225806452</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1564102564102565</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>0.66564102564102556</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="2"/>
+        <v>0.90659340659340659</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <v>380</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1514</v>
+      </c>
+      <c r="D22" t="str">
+        <v>867</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1190</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2258064516129032</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.22007326007326</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.69868131868131866</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.95897435897435901</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <v>400</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1589</v>
+      </c>
+      <c r="D23" t="str">
+        <v>912</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1254</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2903225806451613</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2805128205128204</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73494505494505491</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0105494505494506</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <v>420</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1667</v>
+      </c>
+      <c r="D24" t="str">
+        <v>966</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1315</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3548387096774193</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3433699633699632</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77846153846153843</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0597069597069597</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <v>440</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1750</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1006</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1381</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4193548387096775</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4102564102564104</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="2"/>
+        <v>0.81069597069597066</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1128937728937729</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <v>460</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1827</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1060</v>
+      </c>
+      <c r="E26" t="str">
+        <v>1440</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4838709677419355</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4723076923076921</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="2"/>
+        <v>0.85421245421245418</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1604395604395605</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <v>480</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1910</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1107</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1509</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5483870967741935</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5391941391941393</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89208791208791205</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="2"/>
+        <v>1.216043956043956</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <v>500</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1142</v>
+      </c>
+      <c r="E28" t="str">
+        <v>1571</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6044688644688643</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="2"/>
+        <v>0.92029304029304027</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2660073260073259</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <v>520</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2070</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1194</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1632</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6681318681318682</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="2"/>
+        <v>0.96219780219780215</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3151648351648351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <v>540</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2151</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1230</v>
+      </c>
+      <c r="E30" t="str">
+        <v>1699</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7419354838709677</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7334065934065932</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="2"/>
+        <v>0.99120879120879124</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3691575091575092</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <v>560</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2235</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1289</v>
+      </c>
+      <c r="E31" t="str">
+        <v>1763</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8064516129032258</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8010989010989011</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0387545787545787</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4207326007326007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <v>580</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2310</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1323</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1826</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8709677419354838</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8615384615384616</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="2"/>
+        <v>1.066153846153846</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4715018315018313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <v>600</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2394</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1368</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1890</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="1"/>
+        <v>1.935483870967742</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9292307692307691</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1024175824175824</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.523076923076923</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <v>620</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2474</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1421</v>
+      </c>
+      <c r="E34" t="str">
+        <v>1951</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9936996336996335</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1451282051282052</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5722344322344322</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <v>640</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2550</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1471</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="1"/>
+        <v>2.064516129032258</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0549450549450547</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1854212454212454</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6262271062271061</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <v>660</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2641</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1513</v>
+      </c>
+      <c r="E36" t="str">
+        <v>2079</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>2.129032258064516</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="2"/>
+        <v>2.128278388278388</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2192673992673992</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6753846153846153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <v>680</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2725</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1563</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2145</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="1"/>
+        <v>2.193548387096774</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1959706959706962</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2595604395604394</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7285714285714286</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <v>700</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2797</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1598</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2208</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2580645161290325</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2539926739926739</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2877655677655677</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7793406593406593</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <v>720</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2869</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1648</v>
+      </c>
+      <c r="E39" t="str">
+        <v>2272</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3225806451612905</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3120146520146516</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3280586080586079</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8309157509157508</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <v>740</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2940</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1692</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2331</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3870967741935485</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3692307692307693</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3635164835164835</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8784615384615382</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <v>760</v>
+      </c>
+      <c r="C41" t="str">
+        <v>3018</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1740</v>
+      </c>
+      <c r="E41" t="str">
+        <v>2398</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4516129032258065</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="2"/>
+        <v>2.432087912087912</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4021978021978021</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9324542124542123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <v>780</v>
+      </c>
+      <c r="C42" t="str">
+        <v>3123</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1767</v>
+      </c>
+      <c r="E42" t="str">
+        <v>2461</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5161290322580645</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5167032967032967</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4239560439560439</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="2"/>
+        <v>1.983223443223443</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Report Helper Documents/Testing.xlsx
+++ b/Report Helper Documents/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4022S/EEE4022S_Salinity_JCP24-03/Report Helper Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CECB1C-BD36-1445-A411-B5F675A3CD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B5DD79-51C8-D44A-93AD-43C0AF3A0F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
+    <workbookView xWindow="-28800" yWindow="1940" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Range" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="244">
   <si>
     <t>VDD</t>
   </si>
@@ -784,6 +784,18 @@
   <si>
     <t>0,0,0,3;156,0,0,2;307,0,0,2;446,0,0,2;568,0,0,2;668,0,0,3;743,0,0,20;789,0,0,161;804,0,0,327;789,0,0,489;743,0,0,644;669,0,0,780;569,0,0,890;447,0,0,971;308,0,0,1028;157,0,0,1047;0,0,0,-2;-156,0,0,-2;-307,0,0,-2;-446,0,0,-2;-568,0,0,-2;-668,0,0,-2;-743,0,0,-2;-789,0,0,-5;-804,0,0,-124;-789,0,0,-302;-743,0,0,-468;-669,0,0,-611;-569,0,0,-730;-447,0,0,-824;-308,0,0,-885;-157,0,0,-915;0,0,0,2;156,0,0,1;307,0,0,1;446,0,0,2;568,0,0,1;668,0,0,2;743,0,0,3;789,0,0,41;804,0,0,204;789,0,0,372;743,0,0,531;669,0,0,670;569,0,0,787;447,0,0,873;308,0,0,931;157,0,0,956;0,0,0,-1;-156,0,0,-2;-307,0,0,-2;-446,0,0,-2;-568,0,0,-2;-668,0,0,-2;-743,0,0,-4;-789,0,0,-32;-804,0,0,-192;-789,0,0,-370;-743,0,0,-529;-669,0,0,-666;-569,0,0,-789;-447,0,0,-881;-308,0,0,-941;-157,0,0,-969;0,0,0,2;156,0,0,2;307,0,0,2;446,0,0,2;568,0,0,2;668,0,0,2;743,0,0,2;789,0,0,14;804,0,0,159;789,0,0,328;743,0,0,490;669,0,0,630;569,0,0,748;447,0,0,837;308,0,0,896;157,0,0,925;0,0,0,-1;-156,0,0,-2;-307,0,0,-2;-446,0,0,-2;-568,0,0,-2;-668,0,0,-2;-743,0,0,-4;-789,0,0,-52;-804,0,0,-222;-789,0,0,-394;-743,0,0,-556;-669,0,0,-699;-569,0,0,-817;-447,0,0,-906;-308,0,0,-968;-157,0,0,-995;0,0,0,2;156,0,0,1;307,0,0,2;446,0,0,1;568,0,0,2;668,0,0,2;743,0,0,3;789,0,0,6;804,0,0,137;789,0,0,309;743,0,0,468;669,0,0,609;569,0,0,724;447,0,0,817;308,0,0,874;157,0,0,900;0,0,0,-2;-156,0,0,-2;-307,0,0,-2;-446,0,0,-3;-568,0,0,-2;-668,0,0,-7;-743,0,0,-4;-789,0,0,-75;-804,0,0,-241;-789,0,0,-414;-743,0,0,-574;-669,0,0,-718;-569,0,0,-835;-447,0,0,-926;-308,0,0,-980;-157,0,0,-1014;</t>
   </si>
+  <si>
+    <t>150,596,348,759;182,724,421,970;215,855,496,1185;248,987,571,1395;281,1119,645,1600;314,1251,721,1785;346,1379,793,1947;379,1510,868,2127;412,1642,943,2315;445,1774,1018,2485;478,1906,1094,2675;510,2033,1167,2846;543,2165,1241,3028;576,2297,1317,3345;609,2428,1392,3401;642,2561,1467,3751;674,2689,1540,3750;707,2820,1614,3856;740,2952,1689,3935;773,3084,1764,4011;</t>
+  </si>
+  <si>
+    <t>150,596,348,955;182,723,421,1130;215,855,496,1322;248,986,571,1502;281,1119,646,1656;314,1251,721,1827;346,1379,794,1999;379,1510,869,2182;412,1642,945,2421;445,1774,1020,2536;478,1905,1095,2742;510,2033,1168,2879;543,2165,1242,3061;576,2297,1319,3243;609,2429,1394,3447;642,2561,1468,3553;674,2689,1542,3710;707,2821,1616,3840;740,2952,1691,3929;773,3085,1767,4004;</t>
+  </si>
+  <si>
+    <t>150,596,349,939;182,724,422,1114;215,855,496,1311;248,987,572,1487;281,1119,646,1669;314,1251,722,1843;346,1379,795,2020;379,1511,870,2197;412,1642,944,2381;445,1774,1019,2555;478,1905,1095,2741;510,2033,1168,2919;543,2165,1243,3100;576,2297,1318,3261;609,2429,1393,3422;642,2561,1468,3601;674,2689,1542,3754;707,2821,1617,3879;740,2952,1692,3957;773,3085,1767,4019;</t>
+  </si>
+  <si>
+    <t>150,596,348,1030;182,724,421,1208;215,855,496,1389;248,987,571,1560;281,1119,646,1732;314,1251,721,1918;346,1379,794,2077;379,1510,869,2258;412,1642,944,2423;445,1773,1019,2597;478,1905,1094,2773;510,2033,1167,2949;543,2166,1241,3136;576,2297,1317,3313;609,2429,1392,3491;642,2561,1467,3660;674,2688,1540,3799;707,2821,1615,3894;740,2952,1689,3973;773,3085,1764,4026;</t>
+  </si>
 </sst>
 </file>
 
@@ -5390,10 +5402,10 @@
                   <c:v>0.48029304029304026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58344322344322341</c:v>
+                  <c:v>0.58263736263736265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68981684981684976</c:v>
+                  <c:v>0.68901098901098901</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.79538461538461536</c:v>
@@ -5408,7 +5420,7 @@
                   <c:v>1.1112820512820512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2176556776556777</c:v>
+                  <c:v>1.2168498168498167</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.3232234432234431</c:v>
@@ -5429,22 +5441,22 @@
                   <c:v>1.8510622710622708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9574358974358974</c:v>
+                  <c:v>1.9566300366300367</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.0638095238095238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1669597069597066</c:v>
+                  <c:v>2.1661538461538461</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.273333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3797069597069598</c:v>
+                  <c:v>2.3789010989010988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4860805860805861</c:v>
+                  <c:v>2.4852747252747251</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -6896,7 +6908,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>0.28124542124542123</c:v>
+                  <c:v>0.28043956043956042</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.33926739926739924</c:v>
@@ -6908,7 +6920,7 @@
                   <c:v>0.46014652014652013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52058608058608047</c:v>
+                  <c:v>0.51978021978021982</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.58102564102564092</c:v>
@@ -6926,7 +6938,7 @@
                   <c:v>0.82036630036630032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88161172161172152</c:v>
+                  <c:v>0.88241758241758239</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.94043956043956045</c:v>
@@ -6935,25 +6947,25 @@
                   <c:v>1.0008791208791208</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.062124542124542</c:v>
+                  <c:v>1.0613186813186812</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1225641025641024</c:v>
+                  <c:v>1.1217582417582417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1838095238095239</c:v>
+                  <c:v>1.1821978021978021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2434432234432233</c:v>
+                  <c:v>1.2410256410256411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.303076923076923</c:v>
+                  <c:v>1.3006593406593405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3635164835164835</c:v>
+                  <c:v>1.361098901098901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4239560439560439</c:v>
+                  <c:v>1.4215384615384614</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -8828,10 +8840,10 @@
                   <c:v>0.48029304029304026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58344322344322341</c:v>
+                  <c:v>0.58263736263736265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68981684981684976</c:v>
+                  <c:v>0.68901098901098901</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.79538461538461536</c:v>
@@ -8846,7 +8858,7 @@
                   <c:v>1.1112820512820512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2176556776556777</c:v>
+                  <c:v>1.2168498168498167</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.3232234432234431</c:v>
@@ -8867,22 +8879,22 @@
                   <c:v>1.8510622710622708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9574358974358974</c:v>
+                  <c:v>1.9566300366300367</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.0638095238095238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1669597069597066</c:v>
+                  <c:v>2.1661538461538461</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.273333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3797069597069598</c:v>
+                  <c:v>2.3789010989010988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4860805860805861</c:v>
+                  <c:v>2.4852747252747251</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -10334,64 +10346,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>0.94688644688644685</c:v>
+                  <c:v>0.79699633699633698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1410989010989012</c:v>
+                  <c:v>0.98717948717948723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3393406593406592</c:v>
+                  <c:v>1.1789743589743589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5383882783882783</c:v>
+                  <c:v>1.3675457875457875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7358241758241757</c:v>
+                  <c:v>1.5545054945054944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9324542124542123</c:v>
+                  <c:v>1.7414652014652012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.121025641025641</c:v>
+                  <c:v>1.9243956043956043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2886446886446885</c:v>
+                  <c:v>2.1186080586080585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4046886446886444</c:v>
+                  <c:v>2.2934798534798535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4917216117216112</c:v>
+                  <c:v>2.4764102564102561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5537728937728934</c:v>
+                  <c:v>2.6319413919413917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.610989010989011</c:v>
+                  <c:v>2.7495970695970691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6778754578754578</c:v>
+                  <c:v>2.8446886446886448</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.735091575091575</c:v>
+                  <c:v>2.9252747252747251</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8003663003663002</c:v>
+                  <c:v>2.9832967032967028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8640293040293039</c:v>
+                  <c:v>3.0308424908424905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9293040293040291</c:v>
+                  <c:v>3.0791941391941391</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9695970695970697</c:v>
+                  <c:v>3.1049816849816847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0211721611721609</c:v>
+                  <c:v>3.1404395604395603</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.059047619047619</c:v>
+                  <c:v>3.1621978021978019</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -12262,7 +12274,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>0.28124542124542123</c:v>
+                  <c:v>0.28043956043956042</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.33926739926739924</c:v>
@@ -12274,7 +12286,7 @@
                   <c:v>0.46014652014652013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52058608058608047</c:v>
+                  <c:v>0.51978021978021982</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.58102564102564092</c:v>
@@ -12292,7 +12304,7 @@
                   <c:v>0.82036630036630032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88161172161172152</c:v>
+                  <c:v>0.88241758241758239</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.94043956043956045</c:v>
@@ -12301,25 +12313,25 @@
                   <c:v>1.0008791208791208</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.062124542124542</c:v>
+                  <c:v>1.0613186813186812</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1225641025641024</c:v>
+                  <c:v>1.1217582417582417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1838095238095239</c:v>
+                  <c:v>1.1821978021978021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2434432234432233</c:v>
+                  <c:v>1.2410256410256411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.303076923076923</c:v>
+                  <c:v>1.3006593406593405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3635164835164835</c:v>
+                  <c:v>1.361098901098901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4239560439560439</c:v>
+                  <c:v>1.4215384615384614</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -13771,64 +13783,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>0.94688644688644685</c:v>
+                  <c:v>0.79699633699633698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1410989010989012</c:v>
+                  <c:v>0.98717948717948723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3393406593406592</c:v>
+                  <c:v>1.1789743589743589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5383882783882783</c:v>
+                  <c:v>1.3675457875457875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7358241758241757</c:v>
+                  <c:v>1.5545054945054944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9324542124542123</c:v>
+                  <c:v>1.7414652014652012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.121025641025641</c:v>
+                  <c:v>1.9243956043956043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2886446886446885</c:v>
+                  <c:v>2.1186080586080585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4046886446886444</c:v>
+                  <c:v>2.2934798534798535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4917216117216112</c:v>
+                  <c:v>2.4764102564102561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5537728937728934</c:v>
+                  <c:v>2.6319413919413917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.610989010989011</c:v>
+                  <c:v>2.7495970695970691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6778754578754578</c:v>
+                  <c:v>2.8446886446886448</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.735091575091575</c:v>
+                  <c:v>2.9252747252747251</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8003663003663002</c:v>
+                  <c:v>2.9832967032967028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8640293040293039</c:v>
+                  <c:v>3.0308424908424905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9293040293040291</c:v>
+                  <c:v>3.0791941391941391</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9695970695970697</c:v>
+                  <c:v>3.1049816849816847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0211721611721609</c:v>
+                  <c:v>3.1404395604395603</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.059047619047619</c:v>
+                  <c:v>3.1621978021978019</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -15673,10 +15685,10 @@
                   <c:v>0.48029304029304026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58344322344322341</c:v>
+                  <c:v>0.58263736263736265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68981684981684976</c:v>
+                  <c:v>0.68901098901098901</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.79538461538461536</c:v>
@@ -15691,7 +15703,7 @@
                   <c:v>1.1112820512820512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2176556776556777</c:v>
+                  <c:v>1.2168498168498167</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.3232234432234431</c:v>
@@ -15712,22 +15724,22 @@
                   <c:v>1.8510622710622708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9574358974358974</c:v>
+                  <c:v>1.9566300366300367</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.0638095238095238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1669597069597066</c:v>
+                  <c:v>2.1661538461538461</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.273333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3797069597069598</c:v>
+                  <c:v>2.3789010989010988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4860805860805861</c:v>
+                  <c:v>2.4852747252747251</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -17179,64 +17191,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>3.36676217765043</c:v>
+                  <c:v>2.8419540229885061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3634204275534447</c:v>
+                  <c:v>2.909738717339668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.350806451612903</c:v>
+                  <c:v>2.9495967741935485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3432574430823117</c:v>
+                  <c:v>2.9719789842381785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3343653250773997</c:v>
+                  <c:v>2.990697674418604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3259361997226078</c:v>
+                  <c:v>2.9972260748959778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3148614609571787</c:v>
+                  <c:v>3.0075566750629723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2681242807825086</c:v>
+                  <c:v>3.0253164556962022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1610169491525419</c:v>
+                  <c:v>3.0148305084745761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0373280943025538</c:v>
+                  <c:v>3.0186640471512769</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8967093235831807</c:v>
+                  <c:v>2.9826484018264838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7763496143958868</c:v>
+                  <c:v>2.9237360754070258</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6755233494363933</c:v>
+                  <c:v>2.8421900161030598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.575113808801214</c:v>
+                  <c:v>2.7562642369020502</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.494615936826992</c:v>
+                  <c:v>2.6594827586206895</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4193328795098705</c:v>
+                  <c:v>2.5637355146557601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.355800388852884</c:v>
+                  <c:v>2.4811688311688309</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2789115646258504</c:v>
+                  <c:v>2.3872366790582404</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2157210401891252</c:v>
+                  <c:v>2.3072824156305507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1482739105829087</c:v>
+                  <c:v>2.2244897959183674</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -26629,14 +26641,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF9EF3-1AC3-AC4D-852C-E437797668DB}">
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J3"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
@@ -26742,8 +26755,8 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>AC101</f>
-        <v>150,596,349,1175;182,724,421,1416;215,856,496,1662;248,987,571,1909;281,1119,646,2154;314,1251,721,2398;346,1379,794,2632;379,1511,869,2840;412,1642,944,2984;445,1773,1018,3092;478,1905,1094,3169;510,2033,1167,3240;543,2165,1242,3323;576,2297,1318,3394;609,2429,1393,3475;642,2561,1469,3554;674,2689,1543,3635;707,2821,1617,3685;740,2953,1692,3749;773,3085,1767,3796;</v>
+        <f>AC69</f>
+        <v>150,596,348,989;182,723,421,1225;215,855,496,1463;248,987,571,1697;281,1119,645,1929;314,1251,721,2161;346,1379,794,2388;379,1510,869,2629;412,1642,944,2846;445,1773,1018,3073;478,1905,1095,3266;510,2033,1167,3412;543,2165,1242,3530;576,2297,1317,3630;609,2428,1392,3702;642,2561,1467,3761;674,2688,1540,3821;707,2821,1614,3853;740,2952,1689,3897;773,3084,1764,3924;</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:E22">_xlfn.TEXTSPLIT(A3,",",";",TRUE)</f>
@@ -26753,10 +26766,10 @@
         <v>596</v>
       </c>
       <c r="D3" t="str">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" t="str">
-        <v>1175</v>
+        <v>989</v>
       </c>
       <c r="F3" s="4">
         <f>B3*3.3/1023</f>
@@ -26768,15 +26781,15 @@
       </c>
       <c r="H3" s="6">
         <f>D3*3.3/4095</f>
-        <v>0.28124542124542123</v>
+        <v>0.28043956043956042</v>
       </c>
       <c r="I3" s="6">
         <f>E3*3.3/4095</f>
-        <v>0.94688644688644685</v>
+        <v>0.79699633699633698</v>
       </c>
       <c r="J3">
         <f>I3/H3</f>
-        <v>3.36676217765043</v>
+        <v>2.8419540229885061</v>
       </c>
       <c r="Q3" t="s">
         <v>50</v>
@@ -26817,13 +26830,13 @@
         <v>182</v>
       </c>
       <c r="C4" t="str">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D4" t="str">
         <v>421</v>
       </c>
       <c r="E4" t="str">
-        <v>1416</v>
+        <v>1225</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F52" si="0">B4*3.3/1023</f>
@@ -26831,7 +26844,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G43" si="1">C4*3.3/4095</f>
-        <v>0.58344322344322341</v>
+        <v>0.58263736263736265</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ref="H4:H67" si="2">D4*3.3/4095</f>
@@ -26839,11 +26852,11 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I67" si="3">E4*3.3/4095</f>
-        <v>1.1410989010989012</v>
+        <v>0.98717948717948723</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J67" si="4">I4/H4</f>
-        <v>3.3634204275534447</v>
+        <v>2.909738717339668</v>
       </c>
       <c r="Q4" t="s">
         <v>49</v>
@@ -26884,13 +26897,13 @@
         <v>215</v>
       </c>
       <c r="C5" t="str">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D5" t="str">
         <v>496</v>
       </c>
       <c r="E5" t="str">
-        <v>1662</v>
+        <v>1463</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
@@ -26898,7 +26911,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>0.68981684981684976</v>
+        <v>0.68901098901098901</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
@@ -26906,11 +26919,11 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="3"/>
-        <v>1.3393406593406592</v>
+        <v>1.1789743589743589</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>3.350806451612903</v>
+        <v>2.9495967741935485</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -26924,7 +26937,7 @@
         <v>571</v>
       </c>
       <c r="E6" t="str">
-        <v>1909</v>
+        <v>1697</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
@@ -26940,11 +26953,11 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="3"/>
-        <v>1.5383882783882783</v>
+        <v>1.3675457875457875</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>3.3432574430823117</v>
+        <v>2.9719789842381785</v>
       </c>
       <c r="Q6" t="s">
         <v>47</v>
@@ -26988,10 +27001,10 @@
         <v>1119</v>
       </c>
       <c r="D7" t="str">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E7" t="str">
-        <v>2154</v>
+        <v>1929</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
@@ -27003,15 +27016,15 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.52058608058608047</v>
+        <v>0.51978021978021982</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="3"/>
-        <v>1.7358241758241757</v>
+        <v>1.5545054945054944</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>3.3343653250773997</v>
+        <v>2.990697674418604</v>
       </c>
       <c r="Q7" t="s">
         <v>48</v>
@@ -27058,7 +27071,7 @@
         <v>721</v>
       </c>
       <c r="E8" t="str">
-        <v>2398</v>
+        <v>2161</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
@@ -27074,11 +27087,11 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>1.9324542124542123</v>
+        <v>1.7414652014652012</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>3.3259361997226078</v>
+        <v>2.9972260748959778</v>
       </c>
       <c r="AC8" s="2"/>
     </row>
@@ -27093,7 +27106,7 @@
         <v>794</v>
       </c>
       <c r="E9" t="str">
-        <v>2632</v>
+        <v>2388</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
@@ -27109,11 +27122,11 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="3"/>
-        <v>2.121025641025641</v>
+        <v>1.9243956043956043</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>3.3148614609571787</v>
+        <v>3.0075566750629723</v>
       </c>
       <c r="Q9" t="s">
         <v>57</v>
@@ -27154,13 +27167,13 @@
         <v>379</v>
       </c>
       <c r="C10" t="str">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D10" t="str">
         <v>869</v>
       </c>
       <c r="E10" t="str">
-        <v>2840</v>
+        <v>2629</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
@@ -27168,7 +27181,7 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>1.2176556776556777</v>
+        <v>1.2168498168498167</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
@@ -27176,11 +27189,11 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="3"/>
-        <v>2.2886446886446885</v>
+        <v>2.1186080586080585</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>3.2681242807825086</v>
+        <v>3.0253164556962022</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -27227,7 +27240,7 @@
         <v>944</v>
       </c>
       <c r="E11" t="str">
-        <v>2984</v>
+        <v>2846</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
@@ -27243,11 +27256,11 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>2.4046886446886444</v>
+        <v>2.2934798534798535</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>3.1610169491525419</v>
+        <v>3.0148305084745761</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -27261,7 +27274,7 @@
         <v>1018</v>
       </c>
       <c r="E12" t="str">
-        <v>3092</v>
+        <v>3073</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
@@ -27277,11 +27290,11 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>2.4917216117216112</v>
+        <v>2.4764102564102561</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>3.0373280943025538</v>
+        <v>3.0186640471512769</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -27328,10 +27341,10 @@
         <v>1905</v>
       </c>
       <c r="D13" t="str">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E13" t="str">
-        <v>3169</v>
+        <v>3266</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
@@ -27343,15 +27356,15 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>0.88161172161172152</v>
+        <v>0.88241758241758239</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="3"/>
-        <v>2.5537728937728934</v>
+        <v>2.6319413919413917</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>2.8967093235831807</v>
+        <v>2.9826484018264838</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -27401,7 +27414,7 @@
         <v>1167</v>
       </c>
       <c r="E14" t="str">
-        <v>3240</v>
+        <v>3412</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
@@ -27417,11 +27430,11 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="3"/>
-        <v>2.610989010989011</v>
+        <v>2.7495970695970691</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>2.7763496143958868</v>
+        <v>2.9237360754070258</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -27435,7 +27448,7 @@
         <v>1242</v>
       </c>
       <c r="E15" t="str">
-        <v>3323</v>
+        <v>3530</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
@@ -27451,11 +27464,11 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="3"/>
-        <v>2.6778754578754578</v>
+        <v>2.8446886446886448</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>2.6755233494363933</v>
+        <v>2.8421900161030598</v>
       </c>
       <c r="Q15" t="s">
         <v>67</v>
@@ -27502,10 +27515,10 @@
         <v>2297</v>
       </c>
       <c r="D16" t="str">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E16" t="str">
-        <v>3394</v>
+        <v>3630</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
@@ -27517,15 +27530,15 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>1.062124542124542</v>
+        <v>1.0613186813186812</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="3"/>
-        <v>2.735091575091575</v>
+        <v>2.9252747252747251</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>2.575113808801214</v>
+        <v>2.7562642369020502</v>
       </c>
       <c r="Q16" t="s">
         <v>68</v>
@@ -27569,13 +27582,13 @@
         <v>609</v>
       </c>
       <c r="C17" t="str">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D17" t="str">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E17" t="str">
-        <v>3475</v>
+        <v>3702</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
@@ -27583,19 +27596,19 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>1.9574358974358974</v>
+        <v>1.9566300366300367</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>1.1225641025641024</v>
+        <v>1.1217582417582417</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="3"/>
-        <v>2.8003663003663002</v>
+        <v>2.9832967032967028</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>2.494615936826992</v>
+        <v>2.6594827586206895</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -27606,10 +27619,10 @@
         <v>2561</v>
       </c>
       <c r="D18" t="str">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E18" t="str">
-        <v>3554</v>
+        <v>3761</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
@@ -27621,15 +27634,15 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>1.1838095238095239</v>
+        <v>1.1821978021978021</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="3"/>
-        <v>2.8640293040293039</v>
+        <v>3.0308424908424905</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>2.4193328795098705</v>
+        <v>2.5637355146557601</v>
       </c>
       <c r="Q18" t="s">
         <v>71</v>
@@ -27673,13 +27686,13 @@
         <v>674</v>
       </c>
       <c r="C19" t="str">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D19" t="str">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E19" t="str">
-        <v>3635</v>
+        <v>3821</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
@@ -27687,19 +27700,19 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>2.1669597069597066</v>
+        <v>2.1661538461538461</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>1.2434432234432233</v>
+        <v>1.2410256410256411</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="3"/>
-        <v>2.9293040293040291</v>
+        <v>3.0791941391941391</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>2.355800388852884</v>
+        <v>2.4811688311688309</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
@@ -27746,10 +27759,10 @@
         <v>2821</v>
       </c>
       <c r="D20" t="str">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E20" t="str">
-        <v>3685</v>
+        <v>3853</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
@@ -27761,15 +27774,15 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
-        <v>1.303076923076923</v>
+        <v>1.3006593406593405</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="3"/>
-        <v>2.9695970695970697</v>
+        <v>3.1049816849816847</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>2.2789115646258504</v>
+        <v>2.3872366790582404</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -27777,13 +27790,13 @@
         <v>740</v>
       </c>
       <c r="C21" t="str">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="D21" t="str">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E21" t="str">
-        <v>3749</v>
+        <v>3897</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
@@ -27791,19 +27804,19 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>2.3797069597069598</v>
+        <v>2.3789010989010988</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>1.3635164835164835</v>
+        <v>1.361098901098901</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="3"/>
-        <v>3.0211721611721609</v>
+        <v>3.1404395604395603</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>2.2157210401891252</v>
+        <v>2.3072824156305507</v>
       </c>
       <c r="Q21" t="s">
         <v>75</v>
@@ -27847,13 +27860,13 @@
         <v>773</v>
       </c>
       <c r="C22" t="str">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D22" t="str">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="E22" t="str">
-        <v>3796</v>
+        <v>3924</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
@@ -27861,19 +27874,19 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>2.4860805860805861</v>
+        <v>2.4852747252747251</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="2"/>
-        <v>1.4239560439560439</v>
+        <v>1.4215384615384614</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="3"/>
-        <v>3.059047619047619</v>
+        <v>3.1621978021978019</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>2.1482739105829087</v>
+        <v>2.2244897959183674</v>
       </c>
       <c r="Q22" t="s">
         <v>76</v>
@@ -29747,7 +29760,7 @@
       </c>
       <c r="L58" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,G3:G22),",",".")</f>
-        <v>0.48029304029304 0.583443223443223 0.68981684981685 0.795384615384615 0.901758241758242 1.00813186813187 1.11128205128205 1.21765567765568 1.32322344322344 1.42879120879121 1.53516483516484 1.63831501831502 1.74468864468864 1.85106227106227 1.9574358974359 2.06380952380952 2.16695970695971 2.27333333333333 2.37970695970696 2.48608058608059</v>
+        <v>0.48029304029304 0.582637362637363 0.689010989010989 0.795384615384615 0.901758241758242 1.00813186813187 1.11128205128205 1.21684981684982 1.32322344322344 1.42879120879121 1.53516483516484 1.63831501831502 1.74468864468864 1.85106227106227 1.95663003663004 2.06380952380952 2.16615384615385 2.27333333333333 2.3789010989011 2.48527472527473</v>
       </c>
       <c r="Q58" t="s">
         <v>151</v>
@@ -29812,7 +29825,7 @@
       </c>
       <c r="L59" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,I3:I22),",",".")</f>
-        <v>0.946886446886447 1.1410989010989 1.33934065934066 1.53838827838828 1.73582417582418 1.93245421245421 2.12102564102564 2.28864468864469 2.40468864468864 2.49172161172161 2.55377289377289 2.61098901098901 2.67787545787546 2.73509157509157 2.8003663003663 2.8640293040293 2.92930402930403 2.96959706959707 3.02117216117216 3.05904761904762</v>
+        <v>0.796996336996337 0.987179487179487 1.17897435897436 1.36754578754579 1.55450549450549 1.7414652014652 1.9243956043956 2.11860805860806 2.29347985347985 2.47641025641026 2.63194139194139 2.74959706959707 2.84468864468864 2.92527472527473 2.9832967032967 3.03084249084249 3.07919413919414 3.10498168498168 3.14043956043956 3.1621978021978</v>
       </c>
       <c r="Q59" t="s">
         <v>152</v>
@@ -29877,7 +29890,7 @@
       </c>
       <c r="L60" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,J3:J22),",",".")</f>
-        <v>3.36676217765043 3.36342042755344 3.3508064516129 3.34325744308231 3.3343653250774 3.32593619972261 3.31486146095718 3.26812428078251 3.16101694915254 3.03732809430255 2.89670932358318 2.77634961439589 2.67552334943639 2.57511380880121 2.49461593682699 2.41933287950987 2.35580038885288 2.27891156462585 2.21572104018913 2.14827391058291</v>
+        <v>2.84195402298851 2.90973871733967 2.94959677419355 2.97197898423818 2.9906976744186 2.99722607489598 3.00755667506297 3.0253164556962 3.01483050847458 3.01866404715128 2.98264840182648 2.92373607540703 2.84219001610306 2.75626423690205 2.65948275862069 2.56373551465576 2.48116883116883 2.38723667905824 2.30728241563055 2.22448979591837</v>
       </c>
     </row>
     <row r="61" spans="6:29" x14ac:dyDescent="0.2">
@@ -32272,6 +32285,9 @@
       <c r="AB106" t="s">
         <v>147</v>
       </c>
+      <c r="AC106" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="107" spans="6:29" x14ac:dyDescent="0.2">
       <c r="F107" s="4">
@@ -32330,6 +32346,9 @@
       <c r="AB107" t="s">
         <v>147</v>
       </c>
+      <c r="AC107" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="108" spans="6:29" x14ac:dyDescent="0.2">
       <c r="F108" s="4">
@@ -32388,6 +32407,9 @@
       <c r="AB108" t="s">
         <v>147</v>
       </c>
+      <c r="AC108" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="109" spans="6:29" x14ac:dyDescent="0.2">
       <c r="F109" s="4">
@@ -32445,6 +32467,9 @@
       </c>
       <c r="AB109" t="s">
         <v>147</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="6:29" x14ac:dyDescent="0.2">
@@ -41114,7 +41139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E89DAA0-8AA0-F247-8626-C062B2B43DC4}">
   <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>

--- a/Report Helper Documents/Testing.xlsx
+++ b/Report Helper Documents/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4022S/EEE4022S_Salinity_JCP24-03/Report Helper Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1623A48-997D-004D-92C0-608EC31A0030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BE80B-69CA-B444-90EB-082C63086FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
+    <workbookView xWindow="-28800" yWindow="1940" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Range" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="296">
   <si>
     <t>VDD</t>
   </si>
@@ -930,16 +930,28 @@
     <t>AuSK4e</t>
   </si>
   <si>
-    <t>512,2041,1172,2430;</t>
-  </si>
-  <si>
-    <t>512,2041,1172,2394;</t>
-  </si>
-  <si>
     <t>512,2041,1172,2687</t>
   </si>
   <si>
     <t>512,2041,1172,2677</t>
+  </si>
+  <si>
+    <t>512,2041,1173,2753</t>
+  </si>
+  <si>
+    <t>512,2041,1172,2685</t>
+  </si>
+  <si>
+    <t>512,2041,1172,2430</t>
+  </si>
+  <si>
+    <t>512,2041,1172,2394</t>
+  </si>
+  <si>
+    <t>512,2042,1173,2545</t>
+  </si>
+  <si>
+    <t>512,2042,1172,2560</t>
   </si>
 </sst>
 </file>
@@ -4732,106 +4744,106 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6117216117216117E-3</c:v>
+                  <c:v>8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0586080586080586E-4</c:v>
+                  <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0586080586080586E-4</c:v>
+                  <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0586080586080586E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0586080586080586E-4</c:v>
+                  <c:v>2.4175824175824171E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4175824175824171E-3</c:v>
+                  <c:v>4.8351648351648343E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2234432234432234E-3</c:v>
+                  <c:v>6.9304029304029305E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0293040293040297E-3</c:v>
+                  <c:v>0.19663003663003661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8351648351648343E-3</c:v>
+                  <c:v>0.33120879120879121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12329670329670329</c:v>
+                  <c:v>0.46417582417582415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24256410256410255</c:v>
+                  <c:v>0.6035897435897436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36183150183150181</c:v>
+                  <c:v>0.74139194139194142</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.48109890109890108</c:v>
+                  <c:v>0.88241758241758239</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.59311355311355307</c:v>
+                  <c:v>1.0153846153846153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70432234432234431</c:v>
+                  <c:v>1.1499633699633698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81391941391941391</c:v>
+                  <c:v>1.2748717948717947</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91304029304029299</c:v>
+                  <c:v>1.3933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0105494505494506</c:v>
+                  <c:v>1.5061538461538462</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0951648351648351</c:v>
+                  <c:v>1.6068864468864468</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1709157509157508</c:v>
+                  <c:v>1.6995604395604396</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.236996336996337</c:v>
+                  <c:v>1.7801465201465201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2966300366300365</c:v>
+                  <c:v>1.8494505494505495</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3433699633699632</c:v>
+                  <c:v>1.905054945054945</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3804395604395603</c:v>
+                  <c:v>1.9493772893772894</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4030036630036629</c:v>
+                  <c:v>1.9775824175824175</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4142857142857144</c:v>
+                  <c:v>1.9953113553113551</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4167032967032966</c:v>
+                  <c:v>1.9985347985347985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4046153846153846</c:v>
+                  <c:v>1.9856410256410255</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.6117216117216117E-3</c:v>
+                  <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.6117216117216117E-3</c:v>
+                  <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -4840,10 +4852,10 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>-1.6117216117216117E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>-8.0586080586080586E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -4855,67 +4867,67 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.4175824175824171E-3</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>-1.6117216117216117E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.6117216117216117E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4175824175824171E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>-3.2234432234432234E-3</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>-4.8351648351648343E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-9.4285714285714278E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.21677655677655677</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.34007326007326005</c:v>
+                  <c:v>-4.5934065934065932E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.45450549450549443</c:v>
+                  <c:v>-0.18695970695970693</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.57135531135531126</c:v>
+                  <c:v>-0.32234432234432236</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.67450549450549446</c:v>
+                  <c:v>-0.45369963369963368</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.7768498168498168</c:v>
+                  <c:v>-0.5769963369963369</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.86710622710622709</c:v>
+                  <c:v>-0.69062271062271063</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.94769230769230761</c:v>
+                  <c:v>-0.79054945054945047</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.0194139194139193</c:v>
+                  <c:v>-0.88161172161172152</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.083076923076923</c:v>
+                  <c:v>-0.96380952380952378</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.1370695970695972</c:v>
+                  <c:v>-1.0290842490842489</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.1757509157509156</c:v>
+                  <c:v>-1.0863003663003663</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.2023443223443222</c:v>
+                  <c:v>-1.1273992673992674</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.220879120879121</c:v>
+                  <c:v>-1.1539926739926738</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.224908424908425</c:v>
+                  <c:v>-1.1693040293040293</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.2176556776556777</c:v>
+                  <c:v>-1.1684981684981686</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -4924,10 +4936,10 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.0586080586080586E-4</c:v>
+                  <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6117216117216117E-3</c:v>
+                  <c:v>3.2234432234432234E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -4936,10 +4948,10 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>8.0586080586080586E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>1.6117216117216117E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -4951,67 +4963,67 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.6117216117216117E-3</c:v>
+                  <c:v>4.0293040293040297E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0293040293040297E-3</c:v>
+                  <c:v>7.2527472527472533E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.8351648351648343E-3</c:v>
+                  <c:v>0.21032967032967032</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.11201465201465201</c:v>
+                  <c:v>0.35860805860805861</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.2336996336996337</c:v>
+                  <c:v>0.49963369963369964</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.35860805860805861</c:v>
+                  <c:v>0.64146520146520136</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.48029304029304026</c:v>
+                  <c:v>0.77846153846153843</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.59553113553113546</c:v>
+                  <c:v>0.91304029304029299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.70432234432234431</c:v>
+                  <c:v>1.0419780219780219</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.80666666666666664</c:v>
+                  <c:v>1.1604395604395605</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90901098901098887</c:v>
+                  <c:v>1.2724542124542124</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.9984615384615384</c:v>
+                  <c:v>1.3788278388278385</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.075018315018315</c:v>
+                  <c:v>1.4658608058608058</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1467399267399268</c:v>
+                  <c:v>1.5472527472527473</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2071794871794872</c:v>
+                  <c:v>1.6173626373626373</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2571428571428571</c:v>
+                  <c:v>1.6769963369963368</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.295018315018315</c:v>
+                  <c:v>1.7189010989010989</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3224175824175823</c:v>
+                  <c:v>1.7487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.3385347985347984</c:v>
+                  <c:v>1.7672527472527471</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3401465201465201</c:v>
+                  <c:v>1.7704761904761903</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3320879120879121</c:v>
+                  <c:v>1.759194139194139</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
@@ -5023,7 +5035,7 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-6.4468864468864469E-3</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5032,7 +5044,7 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.6117216117216117E-3</c:v>
+                  <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5041,79 +5053,79 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
+                  <c:v>-8.0586080586080586E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="110">
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
-                <c:pt idx="108">
-                  <c:v>-3.2234432234432234E-3</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-3.2234432234432234E-3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-7.2527472527472523E-3</c:v>
-                </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.14021978021978021</c:v>
+                  <c:v>-4.8351648351648343E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.2643223443223443</c:v>
+                  <c:v>-9.7509157509157493E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.38278388278388276</c:v>
+                  <c:v>-0.24256410256410255</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.49802197802197801</c:v>
+                  <c:v>-0.38358974358974357</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.61084249084249087</c:v>
+                  <c:v>-0.51816849816849819</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.71721611721611722</c:v>
+                  <c:v>-0.6495238095238095</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.81794871794871793</c:v>
+                  <c:v>-0.77362637362637365</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.90901098901098887</c:v>
+                  <c:v>-0.89047619047619042</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.98798534798534787</c:v>
+                  <c:v>-0.992014652014652</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-1.058901098901099</c:v>
+                  <c:v>-1.0838827838827838</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-1.1209523809523809</c:v>
+                  <c:v>-1.1580219780219778</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-1.1709157509157508</c:v>
+                  <c:v>-1.2305494505494503</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-1.2128205128205127</c:v>
+                  <c:v>-1.2845421245421245</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.2394139194139193</c:v>
+                  <c:v>-1.3224175824175823</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-1.2555311355311354</c:v>
+                  <c:v>-1.3522344322344322</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-1.2587545787545786</c:v>
+                  <c:v>-1.361904761904762</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-1.2523076923076923</c:v>
+                  <c:v>-1.3602930402930402</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.0586080586080586E-4</c:v>
+                  <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -5134,7 +5146,7 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.6117216117216117E-3</c:v>
+                  <c:v>8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -5143,7 +5155,7 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.4175824175824171E-3</c:v>
+                  <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>3.2234432234432234E-3</c:v>
@@ -5152,64 +5164,64 @@
                   <c:v>4.8351648351648343E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8.5421245421245406E-2</c:v>
+                  <c:v>0.1394139194139194</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.20710622710622709</c:v>
+                  <c:v>0.28124542124542123</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.32959706959706953</c:v>
+                  <c:v>0.42307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.44967032967032966</c:v>
+                  <c:v>0.56168498168498171</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.56974358974358974</c:v>
+                  <c:v>0.69626373626373617</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.67853479853479848</c:v>
+                  <c:v>0.82358974358974357</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.78249084249084244</c:v>
+                  <c:v>0.94849816849816848</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.88161172161172152</c:v>
+                  <c:v>1.0605128205128205</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.97025641025641018</c:v>
+                  <c:v>1.1668864468864468</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.0524542124542124</c:v>
+                  <c:v>1.2603663003663004</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.1233699633699634</c:v>
+                  <c:v>1.3449816849816849</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.1854212454212454</c:v>
+                  <c:v>1.4183150183150184</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.2345787545787545</c:v>
+                  <c:v>1.4803663003663001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.2724542124542124</c:v>
+                  <c:v>1.5287179487179485</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.3014652014652015</c:v>
+                  <c:v>1.5625641025641026</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.3159706959706958</c:v>
+                  <c:v>1.5843223443223442</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.3191941391941391</c:v>
+                  <c:v>1.593992673992674</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.3111355311355311</c:v>
+                  <c:v>1.5859340659340659</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-1.6117216117216117E-3</c:v>
+                  <c:v>-2.4175824175824171E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5221,13 +5233,13 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-8.0586080586080586E-4</c:v>
+                  <c:v>-3.2234432234432234E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
+                  <c:v>-2.4175824175824171E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>-1.6117216117216117E-3</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5242,67 +5254,67 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-3.2234432234432234E-3</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
+                  <c:v>-2.4175824175824171E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
                   <c:v>-4.8351648351648343E-3</c:v>
                 </c:pt>
-                <c:pt idx="174">
-                  <c:v>-3.3846153846153845E-2</c:v>
-                </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.15875457875457874</c:v>
+                  <c:v>-0.14183150183150181</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.28205128205128205</c:v>
+                  <c:v>-0.28849816849816845</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.40212454212454207</c:v>
+                  <c:v>-0.4343589743589743</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.51575091575091581</c:v>
+                  <c:v>-0.57054945054945061</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.62937728937728932</c:v>
+                  <c:v>-0.70915750915750919</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.73333333333333328</c:v>
+                  <c:v>-0.8316483516483516</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.83245421245421236</c:v>
+                  <c:v>-0.95413919413919412</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.92190476190476189</c:v>
+                  <c:v>-1.058095238095238</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.0057142857142856</c:v>
+                  <c:v>-1.1564102564102565</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.0758241758241758</c:v>
+                  <c:v>-1.2434432234432233</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.1354578754578755</c:v>
+                  <c:v>-1.3183882783882781</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.1862271062271061</c:v>
+                  <c:v>-1.3796336996336995</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.224908424908425</c:v>
+                  <c:v>-1.4287912087912087</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.2539194139194136</c:v>
+                  <c:v>-1.4618315018315018</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.2676190476190474</c:v>
+                  <c:v>-1.4819780219780219</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.2716483516483517</c:v>
+                  <c:v>-1.4908424908424909</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1.2660073260073259</c:v>
+                  <c:v>-1.4843956043956044</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.6117216117216117E-3</c:v>
+                  <c:v>8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -5314,7 +5326,7 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.6117216117216117E-3</c:v>
+                  <c:v>4.0293040293040297E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>1.6117216117216117E-3</c:v>
@@ -5338,73 +5350,73 @@
                   <c:v>1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
+                  <c:v>1.6117216117216117E-3</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>3.2234432234432234E-3</c:v>
                 </c:pt>
-                <c:pt idx="205">
-                  <c:v>4.8351648351648343E-3</c:v>
-                </c:pt>
                 <c:pt idx="206">
-                  <c:v>7.5750915750915748E-2</c:v>
+                  <c:v>8.0586080586080595E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.19824175824175824</c:v>
+                  <c:v>0.16278388278388276</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.32315018315018312</c:v>
+                  <c:v>0.30864468864468864</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.4432234432234432</c:v>
+                  <c:v>0.45047619047619042</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.55684981684981683</c:v>
+                  <c:v>0.58908424908424906</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.67047619047619045</c:v>
+                  <c:v>0.722051282051282</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.77523809523809517</c:v>
+                  <c:v>0.8469597069597069</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.87677655677655664</c:v>
+                  <c:v>0.97347985347985344</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.96703296703296704</c:v>
+                  <c:v>1.074212454212454</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.0460073260073259</c:v>
+                  <c:v>1.1733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.1161172161172161</c:v>
+                  <c:v>1.2603663003663004</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1.1773626373626374</c:v>
+                  <c:v>1.3393406593406592</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.2305494505494503</c:v>
+                  <c:v>1.4038095238095236</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1.2692307692307692</c:v>
+                  <c:v>1.456190476190476</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.295018315018315</c:v>
+                  <c:v>1.4916483516483514</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1.3095238095238095</c:v>
+                  <c:v>1.5142124542124542</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.3135531135531135</c:v>
+                  <c:v>1.5246886446886445</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.307106227106227</c:v>
+                  <c:v>1.5198534798534797</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-8.0586080586080586E-4</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-2.4175824175824171E-3</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5413,7 +5425,7 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-8.0586080586080586E-4</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5425,7 +5437,7 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-1.6117216117216117E-3</c:v>
+                  <c:v>-8.0586080586080586E-4</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>-1.6117216117216117E-3</c:v>
@@ -5434,64 +5446,64 @@
                   <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-3.2234432234432234E-3</c:v>
+                  <c:v>-1.6117216117216117E-3</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-4.0293040293040297E-3</c:v>
+                  <c:v>-2.4175824175824171E-3</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-3.5457875457875453E-2</c:v>
+                  <c:v>-1.0476190476190476E-2</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-0.15956043956043955</c:v>
+                  <c:v>-0.16278388278388276</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-0.28366300366300362</c:v>
+                  <c:v>-0.30703296703296701</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-0.40293040293040294</c:v>
+                  <c:v>-0.44805860805860803</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.51736263736263732</c:v>
+                  <c:v>-0.58263736263736265</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-0.62937728937728932</c:v>
+                  <c:v>-0.71641025641025635</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.73575091575091567</c:v>
+                  <c:v>-0.84454212454212441</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.83648351648351638</c:v>
+                  <c:v>-0.95655677655677651</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-0.92673992673992678</c:v>
+                  <c:v>-1.0645421245421245</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-1.0049084249084248</c:v>
+                  <c:v>-1.1628571428571428</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.0758241758241758</c:v>
+                  <c:v>-1.2490842490842491</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-1.1370695970695972</c:v>
+                  <c:v>-1.3240293040293039</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1.1886446886446886</c:v>
+                  <c:v>-1.3876923076923076</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-1.2273260073260073</c:v>
+                  <c:v>-1.4384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-1.2571428571428571</c:v>
+                  <c:v>-1.4739194139194138</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-1.2700366300366299</c:v>
+                  <c:v>-1.4980952380952381</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1.2740659340659339</c:v>
+                  <c:v>-1.5077655677655677</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-1.2668131868131867</c:v>
+                  <c:v>-1.5013186813186812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7727,151 +7739,151 @@
                   <c:v>1.6455677655677654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6915018315018315</c:v>
+                  <c:v>1.6584615384615384</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6786080586080585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7003663003663003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7172893772893771</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.739047619047619</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7865934065934064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8317216117216117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8800732600732599</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9284249084249083</c:v>
+                  <c:v>1.759194139194139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9735531135531135</c:v>
+                  <c:v>1.7777289377289376</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.7970695970695971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8139926739926737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8325274725274725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8518681318681318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8704029304029302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8897435897435897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.909084249084249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9276190476190476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9469597069597069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9638827838827837</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9816117216117215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0025641025641026</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.0219047619047616</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0710622710622713</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1186080586080585</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1645421245421246</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2120879120879122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2604395604395604</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
+                  <c:v>2.0404395604395607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0613919413919413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0783150183150179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0992673992673994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1347252747252745</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1532600732600735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1742124542124541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1935531135531137</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2128937728937728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2314285714285713</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2515750915750914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2701098901098904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.287032967032967</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2.3055677655677655</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3539194139194137</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4014652014652014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4465934065934065</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4957509157509152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5432967032967033</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>2.3249084249084251</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>2.3450549450549452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2.3635897435897437</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2.3829304029304028</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>2.4022710622710619</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2.4216117216117214</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2.4369230769230765</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2.4570695970695966</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2.4764102564102561</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2.4965567765567767</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.5150915750915748</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2.5336263736263733</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2.5537728937728934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2.5731135531135529</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -9236,151 +9248,151 @@
                   <c:v>0.10637362637362636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10879120879120879</c:v>
+                  <c:v>0.10717948717948718</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.10798534798534798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10959706959706958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11120879120879121</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.11201465201465201</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11443223443223442</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11684981684981685</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12007326007326007</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12249084249084248</c:v>
+                  <c:v>0.11282051282051282</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.11362637362637361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11523809523809524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11604395604395604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11765567765567765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11846153846153845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11926739926739927</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12087912087912088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12168498168498168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12329670329670329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12410256410256409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12490842490842491</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.1257142857142857</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
+                  <c:v>0.12732600732600732</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.12893772893772895</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>0.12974358974358974</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.13135531135531134</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
+                  <c:v>0.13296703296703297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13377289377289375</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.13457875457875459</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="26">
+                  <c:v>0.13538461538461538</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.13699633699633701</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
+                  <c:v>0.13860805860805861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1394139194139194</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.14021978021978021</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
+                  <c:v>0.14183150183150181</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.14263736263736265</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="33">
+                  <c:v>0.14344322344322344</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14424908424908423</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.14586080586080585</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="36">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.14827838827838827</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
+                  <c:v>0.14989010989010987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14989010989010987</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.1515018315018315</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="41">
+                  <c:v>0.15230769230769228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15391941391941391</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.1547252747252747</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15633699633699633</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="44">
+                  <c:v>0.15553113553113554</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15794871794871793</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15956043956043955</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.16036630036630034</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.16117216117216118</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -11165,151 +11177,151 @@
                   <c:v>1.6455677655677654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6915018315018315</c:v>
+                  <c:v>1.6584615384615384</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6786080586080585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7003663003663003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7172893772893771</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.739047619047619</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7865934065934064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8317216117216117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8800732600732599</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9284249084249083</c:v>
+                  <c:v>1.759194139194139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9735531135531135</c:v>
+                  <c:v>1.7777289377289376</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.7970695970695971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8139926739926737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8325274725274725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8518681318681318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8704029304029302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8897435897435897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.909084249084249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9276190476190476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9469597069597069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9638827838827837</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9816117216117215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0025641025641026</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.0219047619047616</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0710622710622713</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1186080586080585</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1645421245421246</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2120879120879122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2604395604395604</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
+                  <c:v>2.0404395604395607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0613919413919413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0783150183150179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0992673992673994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1347252747252745</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1532600732600735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1742124542124541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1935531135531137</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2128937728937728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2314285714285713</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2515750915750914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2701098901098904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.287032967032967</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2.3055677655677655</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3539194139194137</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4014652014652014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4465934065934065</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4957509157509152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5432967032967033</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>2.3249084249084251</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>2.3450549450549452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2.3635897435897437</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2.3829304029304028</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>2.4022710622710619</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2.4216117216117214</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2.4369230769230765</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2.4570695970695966</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2.4764102564102561</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2.4965567765567767</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.5150915750915748</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2.5336263736263733</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2.5537728937728934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2.5731135531135529</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -12671,154 +12683,154 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>0.40695970695970696</c:v>
+                  <c:v>0.47545787545787543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40454212454212451</c:v>
+                  <c:v>0.48109890109890108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41179487179487179</c:v>
+                  <c:v>0.48512820512820509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41824175824175819</c:v>
+                  <c:v>0.48915750915750916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41340659340659336</c:v>
+                  <c:v>0.49238095238095236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41340659340659336</c:v>
+                  <c:v>0.49479853479853475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41340659340659336</c:v>
+                  <c:v>0.49802197802197801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41501831501831504</c:v>
+                  <c:v>0.50124542124542126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42630036630036627</c:v>
+                  <c:v>0.50446886446886441</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42952380952380947</c:v>
+                  <c:v>0.5068864468864468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42871794871794872</c:v>
+                  <c:v>0.50930402930402929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4432234432234432</c:v>
+                  <c:v>0.51252747252747244</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44483516483516483</c:v>
+                  <c:v>0.51494505494505494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4464468864468864</c:v>
+                  <c:v>0.51816849816849819</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46014652014652013</c:v>
+                  <c:v>0.52139194139194134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47545787545787543</c:v>
+                  <c:v>0.52380952380952384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47868131868131863</c:v>
+                  <c:v>0.52622710622710622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48996336996336992</c:v>
+                  <c:v>0.52945054945054948</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50527472527472528</c:v>
+                  <c:v>0.53186813186813187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49479853479853475</c:v>
+                  <c:v>0.53509157509157501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.53750915750915751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.54073260073260065</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.54556776556776554</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.54637362637362641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.54959706959706955</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.55201465201465205</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.5552380952380952</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.55765567765567758</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.56087912087912084</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.5641025641025641</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.56652014652014659</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.57054945054945061</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.57216117216117213</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.57538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.57780219780219777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.58102564102564092</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.58424908424908428</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.58666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.58908424908424906</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.59230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.59553113553113546</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.59794871794871796</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.6011721611721611</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.6035897435897436</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.60681318681318686</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.60923076923076913</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.61164835164835163</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.61406593406593402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.61809523809523803</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.62051282051282053</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -14602,151 +14614,151 @@
                   <c:v>0.10637362637362636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10879120879120879</c:v>
+                  <c:v>0.10717948717948718</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.10798534798534798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10959706959706958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11120879120879121</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.11201465201465201</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11443223443223442</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11684981684981685</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12007326007326007</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12249084249084248</c:v>
+                  <c:v>0.11282051282051282</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.11362637362637361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11523809523809524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11604395604395604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11765567765567765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11846153846153845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11926739926739927</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12087912087912088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12168498168498168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12329670329670329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12410256410256409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12490842490842491</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.1257142857142857</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
+                  <c:v>0.12732600732600732</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.12893772893772895</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>0.12974358974358974</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.13135531135531134</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
+                  <c:v>0.13296703296703297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13377289377289375</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.13457875457875459</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="26">
+                  <c:v>0.13538461538461538</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.13699633699633701</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
+                  <c:v>0.13860805860805861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1394139194139194</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.14021978021978021</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="31">
+                  <c:v>0.14183150183150181</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.14263736263736265</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="33">
+                  <c:v>0.14344322344322344</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14424908424908423</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.14586080586080585</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="36">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.14827838827838827</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
+                  <c:v>0.14989010989010987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14989010989010987</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.1515018315018315</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="41">
+                  <c:v>0.15230769230769228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15391941391941391</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.1547252747252747</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15633699633699633</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="44">
+                  <c:v>0.15553113553113554</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15794871794871793</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15956043956043955</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.16036630036630034</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.16117216117216118</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -16108,154 +16120,154 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>0.40695970695970696</c:v>
+                  <c:v>0.47545787545787543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40454212454212451</c:v>
+                  <c:v>0.48109890109890108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41179487179487179</c:v>
+                  <c:v>0.48512820512820509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41824175824175819</c:v>
+                  <c:v>0.48915750915750916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41340659340659336</c:v>
+                  <c:v>0.49238095238095236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41340659340659336</c:v>
+                  <c:v>0.49479853479853475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41340659340659336</c:v>
+                  <c:v>0.49802197802197801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41501831501831504</c:v>
+                  <c:v>0.50124542124542126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42630036630036627</c:v>
+                  <c:v>0.50446886446886441</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42952380952380947</c:v>
+                  <c:v>0.5068864468864468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42871794871794872</c:v>
+                  <c:v>0.50930402930402929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4432234432234432</c:v>
+                  <c:v>0.51252747252747244</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44483516483516483</c:v>
+                  <c:v>0.51494505494505494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4464468864468864</c:v>
+                  <c:v>0.51816849816849819</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46014652014652013</c:v>
+                  <c:v>0.52139194139194134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47545787545787543</c:v>
+                  <c:v>0.52380952380952384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47868131868131863</c:v>
+                  <c:v>0.52622710622710622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48996336996336992</c:v>
+                  <c:v>0.52945054945054948</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50527472527472528</c:v>
+                  <c:v>0.53186813186813187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49479853479853475</c:v>
+                  <c:v>0.53509157509157501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.53750915750915751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.54073260073260065</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.54556776556776554</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.54637362637362641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.54959706959706955</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.55201465201465205</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.5552380952380952</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.55765567765567758</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.56087912087912084</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.5641025641025641</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.56652014652014659</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.57054945054945061</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.57216117216117213</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.57538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.57780219780219777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.58102564102564092</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.58424908424908428</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.58666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.58908424908424906</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.59230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.59553113553113546</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.59794871794871796</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.6011721611721611</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.6035897435897436</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.60681318681318686</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.60923076923076913</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.61164835164835163</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.61406593406593402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.61809523809523803</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.62051282051282053</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -18010,151 +18022,151 @@
                   <c:v>1.6455677655677654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6915018315018315</c:v>
+                  <c:v>1.6584615384615384</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6786080586080585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7003663003663003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7172893772893771</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.739047619047619</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7865934065934064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8317216117216117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8800732600732599</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9284249084249083</c:v>
+                  <c:v>1.759194139194139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9735531135531135</c:v>
+                  <c:v>1.7777289377289376</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.7970695970695971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8139926739926737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8325274725274725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8518681318681318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8704029304029302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8897435897435897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.909084249084249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9276190476190476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9469597069597069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9638827838827837</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9816117216117215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0025641025641026</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.0219047619047616</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0710622710622713</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1186080586080585</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1645421245421246</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2120879120879122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2604395604395604</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
+                  <c:v>2.0404395604395607</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0613919413919413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0783150183150179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0992673992673994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1347252747252745</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1532600732600735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1742124542124541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1935531135531137</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2128937728937728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2314285714285713</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2515750915750914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2701098901098904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.287032967032967</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2.3055677655677655</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3539194139194137</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4014652014652014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4465934065934065</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4957509157509152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5432967032967033</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>2.3249084249084251</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>2.3450549450549452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2.3635897435897437</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2.3829304029304028</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>2.4022710622710619</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2.4216117216117214</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2.4369230769230765</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2.4570695970695966</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2.4764102564102561</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2.4965567765567767</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.5150915750915748</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2.5336263736263733</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2.5537728937728934</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2.5731135531135529</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -19516,154 +19528,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>3.8257575757575761</c:v>
+                  <c:v>4.4696969696969697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7185185185185183</c:v>
+                  <c:v>4.488721804511278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6762589928057556</c:v>
+                  <c:v>4.4925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6549295774647885</c:v>
+                  <c:v>4.4632352941176476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5379310344827584</c:v>
+                  <c:v>4.4275362318840576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4429530201342282</c:v>
+                  <c:v>4.4172661870503598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.375</c:v>
+                  <c:v>4.4142857142857137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.301282051282052</c:v>
+                  <c:v>4.4113475177304977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3062499999999995</c:v>
+                  <c:v>4.3776223776223775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2699386503067487</c:v>
+                  <c:v>4.3680555555555554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1856287425149699</c:v>
+                  <c:v>4.3287671232876717</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2352941176470584</c:v>
+                  <c:v>4.3265306122448974</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1724137931034484</c:v>
+                  <c:v>4.3175675675675675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1299435028248581</c:v>
+                  <c:v>4.2866666666666671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1546961325966851</c:v>
+                  <c:v>4.2847682119205297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.206521739130435</c:v>
+                  <c:v>4.2483660130718954</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1595744680851063</c:v>
+                  <c:v>4.2402597402597406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.166666666666667</c:v>
+                  <c:v>4.2387096774193553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.231958762886598</c:v>
+                  <c:v>4.2307692307692317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0854271356783922</c:v>
+                  <c:v>4.2025316455696196</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.1687499999999993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.1677018633540373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>4.1533742331288348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>4.1090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4.1084337349397595</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4.1017964071856285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4.1011904761904763</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.0705882352941165</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.0465116279069768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4.0462427745664744</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.0402298850574718</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>4.0227272727272734</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>4.0112994350282483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.01123595505618</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>4.005586592178771</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3.9834254143646404</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3.9835164835164836</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>3.956521739130435</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3.9301075268817209</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.9516129032258069</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3.9308510638297869</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3.9259259259259265</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.9057591623036645</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3.9010416666666674</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>3.9015544041450778</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>3.8769230769230765</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>3.8724489795918373</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>3.8484848484848482</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>3.85427135678392</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>3.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -30155,8 +30167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF9EF3-1AC3-AC4D-852C-E437797668DB}">
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AC3"/>
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30269,11 +30281,11 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>AC49</f>
-        <v>512,2042,132,505;526,2099,135,502;541,2158,139,511;556,2217,142,519;570,2273,145,513;585,2333,149,513;600,2393,152,513;614,2449,156,515;629,2509,160,529;644,2570,163,533;659,2629,167,532;673,2686,170,550;688,2745,174,552;703,2805,177,554;717,2861,181,571;732,2921,184,590;747,2980,188,594;761,3036,192,608;776,3097,194,627;791,3156,199,614;</v>
+        <f>AC34</f>
+        <v>512,2042,132,590;517,2058,133,597;523,2083,134,602;529,2110,136,607;535,2131,138,611;541,2158,139,614;547,2183,140,618;553,2206,141,622;559,2230,143,626;564,2251,144,629;570,2274,146,632;576,2298,147,636;582,2321,148,639;588,2345,150,643;594,2369,151,647;600,2392,153,650;606,2416,154,653;611,2437,155,657;617,2459,156,660;623,2485,158,664;629,2509,160,667;635,2532,161,671;641,2558,163,677;647,2579,165,678;653,2605,166,682;658,2625,167,685;664,2649,168,689;670,2672,170,692;676,2698,172,696;682,2722,173,700;688,2746,174,703;694,2769,176,708;700,2794,177,710;706,2817,178,714;711,2838,179,717;717,2861,181,721;723,2885,182,725;729,2910,184,728;735,2933,186,731;741,2957,186,735;747,2981,188,739;753,3005,189,742;758,3024,191,746;764,3049,192,749;770,3073,193,753;776,3098,195,756;782,3121,196,759;788,3144,198,762;794,3169,199,767;800,3193,200,770;</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:E22">_xlfn.TEXTSPLIT(A3,",",";",TRUE)</f>
+        <f t="array" ref="B3:E52">_xlfn.TEXTSPLIT(A3,",",";",TRUE)</f>
         <v>512</v>
       </c>
       <c r="C3" t="str">
@@ -30283,7 +30295,7 @@
         <v>132</v>
       </c>
       <c r="E3" t="str">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="F3" s="4">
         <f>B3*3.3/1023</f>
@@ -30299,11 +30311,11 @@
       </c>
       <c r="I3" s="6">
         <f>E3*3.3/4095</f>
-        <v>0.40695970695970696</v>
+        <v>0.47545787545787543</v>
       </c>
       <c r="J3">
         <f>I3/H3</f>
-        <v>3.8257575757575761</v>
+        <v>4.4696969696969697</v>
       </c>
       <c r="Q3" t="s">
         <v>50</v>
@@ -30341,36 +30353,36 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="str">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C4" t="str">
-        <v>2099</v>
+        <v>2058</v>
       </c>
       <c r="D4" t="str">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" t="str">
-        <v>502</v>
+        <v>597</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F52" si="0">B4*3.3/1023</f>
-        <v>1.6967741935483871</v>
+        <v>1.667741935483871</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G43" si="1">C4*3.3/4095</f>
-        <v>1.6915018315018315</v>
+        <v>1.6584615384615384</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ref="H4:H67" si="2">D4*3.3/4095</f>
-        <v>0.10879120879120879</v>
+        <v>0.10717948717948718</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I67" si="3">E4*3.3/4095</f>
-        <v>0.40454212454212451</v>
+        <v>0.48109890109890108</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J67" si="4">I4/H4</f>
-        <v>3.7185185185185183</v>
+        <v>4.488721804511278</v>
       </c>
       <c r="Q4" t="s">
         <v>49</v>
@@ -30408,70 +30420,70 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="C5" t="str">
-        <v>2158</v>
+        <v>2083</v>
       </c>
       <c r="D5" t="str">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E5" t="str">
-        <v>511</v>
+        <v>602</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.7451612903225806</v>
+        <v>1.6870967741935483</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>1.739047619047619</v>
+        <v>1.6786080586080585</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>0.11201465201465201</v>
+        <v>0.10798534798534798</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="3"/>
-        <v>0.41179487179487179</v>
+        <v>0.48512820512820509</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>3.6762589928057556</v>
+        <v>4.4925373134328357</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="C6" t="str">
-        <v>2217</v>
+        <v>2110</v>
       </c>
       <c r="D6" t="str">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E6" t="str">
-        <v>519</v>
+        <v>607</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>1.7935483870967741</v>
+        <v>1.7064516129032257</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>1.7865934065934064</v>
+        <v>1.7003663003663003</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.11443223443223442</v>
+        <v>0.10959706959706958</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="3"/>
-        <v>0.41824175824175819</v>
+        <v>0.48915750915750916</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>3.6549295774647885</v>
+        <v>4.4632352941176476</v>
       </c>
       <c r="Q6" t="s">
         <v>47</v>
@@ -30509,36 +30521,36 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="C7" t="str">
-        <v>2273</v>
+        <v>2131</v>
       </c>
       <c r="D7" t="str">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E7" t="str">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>1.8387096774193548</v>
+        <v>1.7258064516129032</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>1.8317216117216117</v>
+        <v>1.7172893772893771</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.11684981684981685</v>
+        <v>0.11120879120879121</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="3"/>
-        <v>0.41340659340659336</v>
+        <v>0.49238095238095236</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>3.5379310344827584</v>
+        <v>4.4275362318840576</v>
       </c>
       <c r="Q7" t="s">
         <v>48</v>
@@ -30576,71 +30588,71 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="C8" t="str">
-        <v>2333</v>
+        <v>2158</v>
       </c>
       <c r="D8" t="str">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E8" t="str">
-        <v>513</v>
+        <v>614</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>1.8870967741935485</v>
+        <v>1.7451612903225806</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>1.8800732600732599</v>
+        <v>1.739047619047619</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.12007326007326007</v>
+        <v>0.11201465201465201</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>0.41340659340659336</v>
+        <v>0.49479853479853475</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>3.4429530201342282</v>
+        <v>4.4172661870503598</v>
       </c>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="C9" t="str">
-        <v>2393</v>
+        <v>2183</v>
       </c>
       <c r="D9" t="str">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E9" t="str">
-        <v>513</v>
+        <v>618</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>1.935483870967742</v>
+        <v>1.764516129032258</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>1.9284249084249083</v>
+        <v>1.759194139194139</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.12249084249084248</v>
+        <v>0.11282051282051282</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="3"/>
-        <v>0.41340659340659336</v>
+        <v>0.49802197802197801</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>3.375</v>
+        <v>4.4142857142857137</v>
       </c>
       <c r="Q9" t="s">
         <v>57</v>
@@ -30678,36 +30690,36 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
-        <v>614</v>
+        <v>553</v>
       </c>
       <c r="C10" t="str">
-        <v>2449</v>
+        <v>2206</v>
       </c>
       <c r="D10" t="str">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E10" t="str">
-        <v>515</v>
+        <v>622</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>1.9806451612903224</v>
+        <v>1.7838709677419353</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>1.9735531135531135</v>
+        <v>1.7777289377289376</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.1257142857142857</v>
+        <v>0.11362637362637361</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="3"/>
-        <v>0.41501831501831504</v>
+        <v>0.50124542124542126</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>3.301282051282052</v>
+        <v>4.4113475177304977</v>
       </c>
       <c r="Q10" t="s">
         <v>59</v>
@@ -30745,70 +30757,70 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="C11" t="str">
-        <v>2509</v>
+        <v>2230</v>
       </c>
       <c r="D11" t="str">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E11" t="str">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>2.0290322580645159</v>
+        <v>1.8032258064516127</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>2.0219047619047616</v>
+        <v>1.7970695970695971</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.12893772893772895</v>
+        <v>0.11523809523809524</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>0.42630036630036627</v>
+        <v>0.50446886446886441</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>3.3062499999999995</v>
+        <v>4.3776223776223775</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
-        <v>644</v>
+        <v>564</v>
       </c>
       <c r="C12" t="str">
-        <v>2570</v>
+        <v>2251</v>
       </c>
       <c r="D12" t="str">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E12" t="str">
-        <v>533</v>
+        <v>629</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>2.0774193548387094</v>
+        <v>1.8193548387096772</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>2.0710622710622713</v>
+        <v>1.8139926739926737</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.13135531135531134</v>
+        <v>0.11604395604395604</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>0.42952380952380947</v>
+        <v>0.5068864468864468</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>3.2699386503067487</v>
+        <v>4.3680555555555554</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -30849,36 +30861,36 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
-        <v>659</v>
+        <v>570</v>
       </c>
       <c r="C13" t="str">
-        <v>2629</v>
+        <v>2274</v>
       </c>
       <c r="D13" t="str">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E13" t="str">
-        <v>532</v>
+        <v>632</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>2.1258064516129029</v>
+        <v>1.8387096774193548</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>2.1186080586080585</v>
+        <v>1.8325274725274725</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>0.13457875457875459</v>
+        <v>0.11765567765567765</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="3"/>
-        <v>0.42871794871794872</v>
+        <v>0.50930402930402929</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>3.1856287425149699</v>
+        <v>4.3287671232876717</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -30919,70 +30931,70 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
-        <v>673</v>
+        <v>576</v>
       </c>
       <c r="C14" t="str">
-        <v>2686</v>
+        <v>2298</v>
       </c>
       <c r="D14" t="str">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E14" t="str">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>2.1709677419354838</v>
+        <v>1.8580645161290321</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>2.1645421245421246</v>
+        <v>1.8518681318681318</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>0.13699633699633701</v>
+        <v>0.11846153846153845</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="3"/>
-        <v>0.4432234432234432</v>
+        <v>0.51252747252747244</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>3.2352941176470584</v>
+        <v>4.3265306122448974</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
-        <v>688</v>
+        <v>582</v>
       </c>
       <c r="C15" t="str">
-        <v>2745</v>
+        <v>2321</v>
       </c>
       <c r="D15" t="str">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E15" t="str">
-        <v>552</v>
+        <v>639</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>2.2193548387096773</v>
+        <v>1.8774193548387097</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>2.2120879120879122</v>
+        <v>1.8704029304029302</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>0.14021978021978021</v>
+        <v>0.11926739926739927</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="3"/>
-        <v>0.44483516483516483</v>
+        <v>0.51494505494505494</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>3.1724137931034484</v>
+        <v>4.3175675675675675</v>
       </c>
       <c r="Q15" t="s">
         <v>67</v>
@@ -31023,36 +31035,36 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
-        <v>703</v>
+        <v>588</v>
       </c>
       <c r="C16" t="str">
-        <v>2805</v>
+        <v>2345</v>
       </c>
       <c r="D16" t="str">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="E16" t="str">
-        <v>554</v>
+        <v>643</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>2.2677419354838713</v>
+        <v>1.8967741935483871</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>2.2604395604395604</v>
+        <v>1.8897435897435897</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>0.14263736263736265</v>
+        <v>0.12087912087912088</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="3"/>
-        <v>0.4464468864468864</v>
+        <v>0.51816849816849819</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>3.1299435028248581</v>
+        <v>4.2866666666666671</v>
       </c>
       <c r="Q16" t="s">
         <v>68</v>
@@ -31093,70 +31105,70 @@
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
-        <v>717</v>
+        <v>594</v>
       </c>
       <c r="C17" t="str">
-        <v>2861</v>
+        <v>2369</v>
       </c>
       <c r="D17" t="str">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E17" t="str">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>2.3129032258064517</v>
+        <v>1.9161290322580644</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>2.3055677655677655</v>
+        <v>1.909084249084249</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>0.14586080586080585</v>
+        <v>0.12168498168498168</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="3"/>
-        <v>0.46014652014652013</v>
+        <v>0.52139194139194134</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>3.1546961325966851</v>
+        <v>4.2847682119205297</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
-        <v>732</v>
+        <v>600</v>
       </c>
       <c r="C18" t="str">
-        <v>2921</v>
+        <v>2392</v>
       </c>
       <c r="D18" t="str">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E18" t="str">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>2.3612903225806452</v>
+        <v>1.935483870967742</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>2.3539194139194137</v>
+        <v>1.9276190476190476</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>0.14827838827838827</v>
+        <v>0.12329670329670329</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="3"/>
-        <v>0.47545787545787543</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>3.206521739130435</v>
+        <v>4.2483660130718954</v>
       </c>
       <c r="Q18" t="s">
         <v>71</v>
@@ -31197,36 +31209,36 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
-        <v>747</v>
+        <v>606</v>
       </c>
       <c r="C19" t="str">
-        <v>2980</v>
+        <v>2416</v>
       </c>
       <c r="D19" t="str">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E19" t="str">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>2.4096774193548387</v>
+        <v>1.9548387096774194</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>2.4014652014652014</v>
+        <v>1.9469597069597069</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>0.1515018315018315</v>
+        <v>0.12410256410256409</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="3"/>
-        <v>0.47868131868131863</v>
+        <v>0.52622710622710622</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>3.1595744680851063</v>
+        <v>4.2402597402597406</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
@@ -31267,70 +31279,70 @@
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
-        <v>761</v>
+        <v>611</v>
       </c>
       <c r="C20" t="str">
-        <v>3036</v>
+        <v>2437</v>
       </c>
       <c r="D20" t="str">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="E20" t="str">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>2.4548387096774191</v>
+        <v>1.9709677419354839</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>2.4465934065934065</v>
+        <v>1.9638827838827837</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
-        <v>0.1547252747252747</v>
+        <v>0.12490842490842491</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="3"/>
-        <v>0.48996336996336992</v>
+        <v>0.52945054945054948</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>3.166666666666667</v>
+        <v>4.2387096774193553</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
-        <v>776</v>
+        <v>617</v>
       </c>
       <c r="C21" t="str">
-        <v>3097</v>
+        <v>2459</v>
       </c>
       <c r="D21" t="str">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="E21" t="str">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>2.5032258064516126</v>
+        <v>1.9903225806451612</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>2.4957509157509152</v>
+        <v>1.9816117216117215</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>0.15633699633699633</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="3"/>
-        <v>0.50527472527472528</v>
+        <v>0.53186813186813187</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>3.231958762886598</v>
+        <v>4.2307692307692317</v>
       </c>
       <c r="Q21" t="s">
         <v>75</v>
@@ -31371,36 +31383,36 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
-        <v>791</v>
+        <v>623</v>
       </c>
       <c r="C22" t="str">
-        <v>3156</v>
+        <v>2485</v>
       </c>
       <c r="D22" t="str">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E22" t="str">
-        <v>614</v>
+        <v>664</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>2.5516129032258061</v>
+        <v>2.0096774193548388</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>2.5432967032967033</v>
+        <v>2.0025641025641026</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="2"/>
-        <v>0.16036630036630034</v>
+        <v>0.12732600732600732</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="3"/>
-        <v>0.49479853479853475</v>
+        <v>0.53509157509157501</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>3.0854271356783922</v>
+        <v>4.2025316455696196</v>
       </c>
       <c r="Q22" t="s">
         <v>76</v>
@@ -31440,47 +31452,71 @@
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <v>629</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2509</v>
+      </c>
+      <c r="D23" t="str">
+        <v>160</v>
+      </c>
+      <c r="E23" t="str">
+        <v>667</v>
+      </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0290322580645159</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0219047619047616</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12893772893772895</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" t="e">
+        <v>0.53750915750915751</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1687499999999993</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <v>635</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2532</v>
+      </c>
+      <c r="D24" t="str">
+        <v>161</v>
+      </c>
+      <c r="E24" t="str">
+        <v>671</v>
+      </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0483870967741935</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0404395604395607</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12974358974358974</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" t="e">
+        <v>0.54073260073260065</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1677018633540373</v>
       </c>
       <c r="Q24" t="s">
         <v>79</v>
@@ -31517,25 +31553,37 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <v>641</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2558</v>
+      </c>
+      <c r="D25" t="str">
+        <v>163</v>
+      </c>
+      <c r="E25" t="str">
+        <v>677</v>
+      </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0677419354838706</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0613919413919413</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13135531135531134</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J25" t="e">
+        <v>0.54556776556776554</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1533742331288348</v>
       </c>
       <c r="Q25" t="s">
         <v>87</v>
@@ -31572,25 +31620,37 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <v>647</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2579</v>
+      </c>
+      <c r="D26" t="str">
+        <v>165</v>
+      </c>
+      <c r="E26" t="str">
+        <v>678</v>
+      </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0870967741935482</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0783150183150179</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13296703296703297</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26" t="e">
+        <v>0.54637362637362641</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1090909090909093</v>
       </c>
       <c r="Q26" t="s">
         <v>82</v>
@@ -31630,25 +31690,37 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <v>653</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2605</v>
+      </c>
+      <c r="D27" t="str">
+        <v>166</v>
+      </c>
+      <c r="E27" t="str">
+        <v>682</v>
+      </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1064516129032258</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0992673992673994</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13377289377289375</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" t="e">
+        <v>0.54959706959706955</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1084337349397595</v>
       </c>
       <c r="Q27" t="s">
         <v>86</v>
@@ -31688,25 +31760,37 @@
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <v>658</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2625</v>
+      </c>
+      <c r="D28" t="str">
+        <v>167</v>
+      </c>
+      <c r="E28" t="str">
+        <v>685</v>
+      </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1225806451612903</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1153846153846154</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13457875457875459</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" t="e">
+        <v>0.55201465201465205</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1017964071856285</v>
       </c>
       <c r="Q28" t="s">
         <v>90</v>
@@ -31746,47 +31830,71 @@
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <v>664</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2649</v>
+      </c>
+      <c r="D29" t="str">
+        <v>168</v>
+      </c>
+      <c r="E29" t="str">
+        <v>689</v>
+      </c>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1419354838709674</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1347252747252745</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13538461538461538</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J29" t="e">
+        <v>0.5552380952380952</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1011904761904763</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <v>670</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2672</v>
+      </c>
+      <c r="D30" t="str">
+        <v>170</v>
+      </c>
+      <c r="E30" t="str">
+        <v>692</v>
+      </c>
       <c r="F30" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.161290322580645</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1532600732600735</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13699633699633701</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J30" t="e">
+        <v>0.55765567765567758</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0705882352941165</v>
       </c>
       <c r="Q30" t="s">
         <v>93</v>
@@ -31826,25 +31934,37 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <v>676</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2698</v>
+      </c>
+      <c r="D31" t="str">
+        <v>172</v>
+      </c>
+      <c r="E31" t="str">
+        <v>696</v>
+      </c>
       <c r="F31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1806451612903222</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1742124542124541</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13860805860805861</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31" t="e">
+        <v>0.56087912087912084</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0465116279069768</v>
       </c>
       <c r="Q31" t="s">
         <v>99</v>
@@ -31884,25 +32004,37 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <v>682</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2722</v>
+      </c>
+      <c r="D32" t="str">
+        <v>173</v>
+      </c>
+      <c r="E32" t="str">
+        <v>700</v>
+      </c>
       <c r="F32" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1935531135531137</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1394139194139194</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32" t="e">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0462427745664744</v>
       </c>
       <c r="Q32" t="s">
         <v>97</v>
@@ -31941,48 +32073,72 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <v>688</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2746</v>
+      </c>
+      <c r="D33" t="str">
+        <v>174</v>
+      </c>
+      <c r="E33" t="str">
+        <v>703</v>
+      </c>
       <c r="F33" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2193548387096773</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2128937728937728</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14021978021978021</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" t="e">
+        <v>0.56652014652014659</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="6:29" x14ac:dyDescent="0.2">
+        <v>4.0402298850574718</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <v>694</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2769</v>
+      </c>
+      <c r="D34" t="str">
+        <v>176</v>
+      </c>
+      <c r="E34" t="str">
+        <v>708</v>
+      </c>
       <c r="F34" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2387096774193544</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2314285714285713</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14183150183150181</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J34" t="e">
+        <v>0.57054945054945061</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0227272727272734</v>
       </c>
       <c r="Q34" t="s">
         <v>105</v>
@@ -32021,26 +32177,38 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <v>700</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2794</v>
+      </c>
+      <c r="D35" t="str">
+        <v>177</v>
+      </c>
+      <c r="E35" t="str">
+        <v>710</v>
+      </c>
       <c r="F35" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2580645161290325</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2515750915750914</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14263736263736265</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35" t="e">
+        <v>0.57216117216117213</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0112994350282483</v>
       </c>
       <c r="Q35" t="s">
         <v>106</v>
@@ -32079,26 +32247,38 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <v>706</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2817</v>
+      </c>
+      <c r="D36" t="str">
+        <v>178</v>
+      </c>
+      <c r="E36" t="str">
+        <v>714</v>
+      </c>
       <c r="F36" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2774193548387096</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2701098901098904</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14344322344322344</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J36" t="e">
+        <v>0.57538461538461538</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.01123595505618</v>
       </c>
       <c r="Q36" t="s">
         <v>107</v>
@@ -32137,26 +32317,38 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <v>711</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2838</v>
+      </c>
+      <c r="D37" t="str">
+        <v>179</v>
+      </c>
+      <c r="E37" t="str">
+        <v>717</v>
+      </c>
       <c r="F37" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2935483870967741</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.287032967032967</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14424908424908423</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J37" t="e">
+        <v>0.57780219780219777</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.005586592178771</v>
       </c>
       <c r="Q37" t="s">
         <v>110</v>
@@ -32195,26 +32387,38 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <v>717</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2861</v>
+      </c>
+      <c r="D38" t="str">
+        <v>181</v>
+      </c>
+      <c r="E38" t="str">
+        <v>721</v>
+      </c>
       <c r="F38" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3129032258064517</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3055677655677655</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14586080586080585</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J38" t="e">
+        <v>0.58102564102564092</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9834254143646404</v>
       </c>
       <c r="Q38" t="s">
         <v>111</v>
@@ -32253,26 +32457,38 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <v>723</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2885</v>
+      </c>
+      <c r="D39" t="str">
+        <v>182</v>
+      </c>
+      <c r="E39" t="str">
+        <v>725</v>
+      </c>
       <c r="F39" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3322580645161293</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3249084249084251</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J39" t="e">
+        <v>0.58424908424908428</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9835164835164836</v>
       </c>
       <c r="Q39" t="s">
         <v>112</v>
@@ -32311,26 +32527,38 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <v>729</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2910</v>
+      </c>
+      <c r="D40" t="str">
+        <v>184</v>
+      </c>
+      <c r="E40" t="str">
+        <v>728</v>
+      </c>
       <c r="F40" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3516129032258064</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3450549450549452</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14827838827838827</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40" t="e">
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.956521739130435</v>
       </c>
       <c r="Q40" t="s">
         <v>104</v>
@@ -32369,48 +32597,72 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <v>735</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2933</v>
+      </c>
+      <c r="D41" t="str">
+        <v>186</v>
+      </c>
+      <c r="E41" t="str">
+        <v>731</v>
+      </c>
       <c r="F41" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.370967741935484</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3635897435897437</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14989010989010987</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J41" t="e">
+        <v>0.58908424908424906</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="6:29" x14ac:dyDescent="0.2">
+        <v>3.9301075268817209</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <v>741</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2957</v>
+      </c>
+      <c r="D42" t="str">
+        <v>186</v>
+      </c>
+      <c r="E42" t="str">
+        <v>735</v>
+      </c>
       <c r="F42" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3903225806451611</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3829304029304028</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14989010989010987</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J42" t="e">
+        <v>0.59230769230769231</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9516129032258069</v>
       </c>
       <c r="Q42" t="s">
         <v>122</v>
@@ -32449,26 +32701,38 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <v>747</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2981</v>
+      </c>
+      <c r="D43" t="str">
+        <v>188</v>
+      </c>
+      <c r="E43" t="str">
+        <v>739</v>
+      </c>
       <c r="F43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4096774193548387</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4022710622710619</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1515018315018315</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J43" t="e">
+        <v>0.59553113553113546</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9308510638297869</v>
       </c>
       <c r="Q43" t="s">
         <v>125</v>
@@ -32507,26 +32771,38 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <v>753</v>
+      </c>
+      <c r="C44" t="str">
+        <v>3005</v>
+      </c>
+      <c r="D44" t="str">
+        <v>189</v>
+      </c>
+      <c r="E44" t="str">
+        <v>742</v>
+      </c>
       <c r="F44" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4290322580645163</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" ref="G44:G52" si="5">C44*3.3/4095</f>
-        <v>0</v>
+        <v>2.4216117216117214</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15230769230769228</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J44" t="e">
+        <v>0.59794871794871796</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9259259259259265</v>
       </c>
       <c r="Q44" t="s">
         <v>126</v>
@@ -32565,26 +32841,38 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <v>758</v>
+      </c>
+      <c r="C45" t="str">
+        <v>3024</v>
+      </c>
+      <c r="D45" t="str">
+        <v>191</v>
+      </c>
+      <c r="E45" t="str">
+        <v>746</v>
+      </c>
       <c r="F45" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4451612903225808</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4369230769230765</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15391941391941391</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J45" t="e">
+        <v>0.6011721611721611</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9057591623036645</v>
       </c>
       <c r="Q45" t="s">
         <v>127</v>
@@ -32623,49 +32911,73 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <v>764</v>
+      </c>
+      <c r="C46" t="str">
+        <v>3049</v>
+      </c>
+      <c r="D46" t="str">
+        <v>192</v>
+      </c>
+      <c r="E46" t="str">
+        <v>749</v>
+      </c>
       <c r="F46" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4645161290322579</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4570695970695966</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1547252747252747</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J46" t="e">
+        <v>0.6035897435897436</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9010416666666674</v>
       </c>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <v>770</v>
+      </c>
+      <c r="C47" t="str">
+        <v>3073</v>
+      </c>
+      <c r="D47" t="str">
+        <v>193</v>
+      </c>
+      <c r="E47" t="str">
+        <v>753</v>
+      </c>
       <c r="F47" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4838709677419355</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4764102564102561</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15553113553113554</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J47" t="e">
+        <v>0.60681318681318686</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.9015544041450778</v>
       </c>
       <c r="Q47" t="s">
         <v>133</v>
@@ -32704,26 +33016,38 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <v>776</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3098</v>
+      </c>
+      <c r="D48" t="str">
+        <v>195</v>
+      </c>
+      <c r="E48" t="str">
+        <v>756</v>
+      </c>
       <c r="F48" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5032258064516126</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4965567765567767</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J48" t="e">
+        <v>0.60923076923076913</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.8769230769230765</v>
       </c>
       <c r="Q48" t="s">
         <v>136</v>
@@ -32762,26 +33086,38 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <v>782</v>
+      </c>
+      <c r="C49" t="str">
+        <v>3121</v>
+      </c>
+      <c r="D49" t="str">
+        <v>196</v>
+      </c>
+      <c r="E49" t="str">
+        <v>759</v>
+      </c>
       <c r="F49" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5225806451612902</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5150915750915748</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15794871794871793</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J49" t="e">
+        <v>0.61164835164835163</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.8724489795918373</v>
       </c>
       <c r="Q49" t="s">
         <v>137</v>
@@ -32820,26 +33156,38 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <v>788</v>
+      </c>
+      <c r="C50" t="str">
+        <v>3144</v>
+      </c>
+      <c r="D50" t="str">
+        <v>198</v>
+      </c>
+      <c r="E50" t="str">
+        <v>762</v>
+      </c>
       <c r="F50" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5419354838709673</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5336263736263733</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15956043956043955</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J50" t="e">
+        <v>0.61406593406593402</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.8484848484848482</v>
       </c>
       <c r="Q50" t="s">
         <v>140</v>
@@ -32878,26 +33226,38 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <v>794</v>
+      </c>
+      <c r="C51" t="str">
+        <v>3169</v>
+      </c>
+      <c r="D51" t="str">
+        <v>199</v>
+      </c>
+      <c r="E51" t="str">
+        <v>767</v>
+      </c>
       <c r="F51" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5612903225806449</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5537728937728934</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16036630036630034</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J51" t="e">
+        <v>0.61809523809523803</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.85427135678392</v>
       </c>
       <c r="Q51" t="s">
         <v>141</v>
@@ -32936,26 +33296,38 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <v>800</v>
+      </c>
+      <c r="C52" t="str">
+        <v>3193</v>
+      </c>
+      <c r="D52" t="str">
+        <v>200</v>
+      </c>
+      <c r="E52" t="str">
+        <v>770</v>
+      </c>
       <c r="F52" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5806451612903225</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5731135531135529</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16117216117216118</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J52" t="e">
+        <v>0.62051282051282053</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="Q52" t="s">
         <v>142</v>
@@ -32994,7 +33366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F53" s="4">
         <f t="shared" ref="F53:F116" si="6">B53*3.3/1023</f>
         <v>0</v>
@@ -33016,7 +33388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F54" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33074,7 +33446,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F55" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33132,7 +33504,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F56" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33190,7 +33562,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F57" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33248,7 +33620,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F58" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33274,7 +33646,7 @@
       </c>
       <c r="L58" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,G3:G22),",",".")</f>
-        <v>1.64556776556777 1.69150183150183 1.73904761904762 1.78659340659341 1.83172161172161 1.88007326007326 1.92842490842491 1.97355311355311 2.02190476190476 2.07106227106227 2.11860805860806 2.16454212454212 2.21208791208791 2.26043956043956 2.30556776556777 2.35391941391941 2.4014652014652 2.44659340659341 2.49575091575092 2.5432967032967</v>
+        <v>1.64556776556777 1.65846153846154 1.67860805860806 1.7003663003663 1.71728937728938 1.73904761904762 1.75919413919414 1.77772893772894 1.7970695970696 1.81399267399267 1.83252747252747 1.85186813186813 1.87040293040293 1.88974358974359 1.90908424908425 1.92761904761905 1.94695970695971 1.96388278388278 1.98161172161172 2.0025641025641</v>
       </c>
       <c r="Q58" t="s">
         <v>151</v>
@@ -33313,7 +33685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F59" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33339,7 +33711,7 @@
       </c>
       <c r="L59" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,I3:I22),",",".")</f>
-        <v>0.406959706959707 0.404542124542125 0.411794871794872 0.418241758241758 0.413406593406593 0.413406593406593 0.413406593406593 0.415018315018315 0.426300366300366 0.429523809523809 0.428717948717949 0.443223443223443 0.444835164835165 0.446446886446886 0.46014652014652 0.475457875457875 0.478681318681319 0.48996336996337 0.505274725274725 0.494798534798535</v>
+        <v>0.475457875457875 0.481098901098901 0.485128205128205 0.489157509157509 0.492380952380952 0.494798534798535 0.498021978021978 0.501245421245421 0.504468864468864 0.506886446886447 0.509304029304029 0.512527472527472 0.514945054945055 0.518168498168498 0.521391941391941 0.523809523809524 0.526227106227106 0.529450549450549 0.531868131868132 0.535091575091575</v>
       </c>
       <c r="Q59" t="s">
         <v>152</v>
@@ -33378,7 +33750,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F60" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33404,10 +33776,10 @@
       </c>
       <c r="L60" t="str">
         <f>SUBSTITUTE(_xlfn.TEXTJOIN(" ",TRUE,J3:J22),",",".")</f>
-        <v>3.82575757575758 3.71851851851852 3.67625899280576 3.65492957746479 3.53793103448276 3.44295302013423 3.375 3.30128205128205 3.30625 3.26993865030675 3.18562874251497 3.23529411764706 3.17241379310345 3.12994350282486 3.15469613259669 3.20652173913044 3.15957446808511 3.16666666666667 3.2319587628866 3.08542713567839</v>
-      </c>
-    </row>
-    <row r="61" spans="6:29" x14ac:dyDescent="0.2">
+        <v>4.46969696969697 4.48872180451128 4.49253731343284 4.46323529411765 4.42753623188406 4.41726618705036 4.41428571428571 4.4113475177305 4.37762237762238 4.36805555555556 4.32876712328767 4.3265306122449 4.31756756756757 4.28666666666667 4.28476821192053 4.2483660130719 4.24025974025974 4.23870967741936 4.23076923076923 4.20253164556962</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F61" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33465,7 +33837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F62" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33523,7 +33895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F63" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -33581,7 +33953,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F64" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -44651,15 +45023,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A109C5-D98F-8F41-8835-35D1769FF382}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="L1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
         <v>30</v>
       </c>
@@ -44686,7 +45058,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -44757,7 +45129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f>AC7</f>
         <v>512,2041,1172,2077;512,2041,1174,2133;512,2042,1174,2169;512,2042,1173,2191;512,2041,1173,2209;512,2041,1174,2235;512,2041,1172,2248;512,2041,1174,2279;512,2041,1172,2287;512,2041,1173,2298;</v>
@@ -44832,7 +45204,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B4" t="str">
         <v>512</v>
       </c>
@@ -44902,7 +45274,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
         <v>512</v>
       </c>
@@ -44972,7 +45344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
         <v>512</v>
       </c>
@@ -45006,7 +45378,7 @@
         <v>1.8678601875532821</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <v>512</v>
       </c>
@@ -45076,7 +45448,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <v>512</v>
       </c>
@@ -45110,7 +45482,7 @@
         <v>1.9037478705281092</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <v>512</v>
       </c>
@@ -45183,7 +45555,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <v>512</v>
       </c>
@@ -45219,11 +45591,41 @@
       <c r="Q10" t="s">
         <v>285</v>
       </c>
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10">
+        <v>512</v>
+      </c>
+      <c r="V10">
+        <v>512</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>100</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA10">
+        <v>23.9</v>
+      </c>
       <c r="AC10" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <v>512</v>
       </c>
@@ -45259,11 +45661,41 @@
       <c r="Q11" t="s">
         <v>286</v>
       </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11">
+        <v>512</v>
+      </c>
+      <c r="V11">
+        <v>512</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>100</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA11">
+        <v>23.9</v>
+      </c>
       <c r="AC11" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <v>512</v>
       </c>
@@ -45299,103 +45731,434 @@
       <c r="Q12" t="s">
         <v>287</v>
       </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12">
+        <v>512</v>
+      </c>
+      <c r="V12">
+        <v>512</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>100</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA12">
+        <v>23.9</v>
+      </c>
       <c r="AC12" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="Z14" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA14">
-        <v>23.6</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="AC15" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16">
+        <v>512</v>
+      </c>
+      <c r="V16">
+        <v>512</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA16">
+        <v>23.6</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD16" cm="1">
+        <f t="array" ref="AD16">--INDEX(_xlfn.TEXTSPLIT(AC16,","),4)/1172</f>
+        <v>2.0733788395904438</v>
+      </c>
+    </row>
+    <row r="17" spans="6:30" x14ac:dyDescent="0.2">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17">
+        <v>512</v>
+      </c>
+      <c r="V17">
+        <v>512</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>100</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA17">
+        <v>23.6</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD17" cm="1">
+        <f t="array" ref="AD17">--INDEX(_xlfn.TEXTSPLIT(AC17,","),4)/1172</f>
+        <v>2.0426621160409555</v>
+      </c>
+    </row>
+    <row r="18" spans="6:30" x14ac:dyDescent="0.2">
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="Z18" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA18">
-        <v>23.7</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="AD18">
+        <f>AVERAGE(AD16:AD17)</f>
+        <v>2.0580204778156999</v>
+      </c>
+    </row>
+    <row r="19" spans="6:30" x14ac:dyDescent="0.2">
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
+      <c r="R19" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19">
+        <v>512</v>
+      </c>
+      <c r="V19">
+        <v>512</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>100</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA19">
+        <v>23.7</v>
+      </c>
       <c r="AC19" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="6:29" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="AD19" cm="1">
+        <f t="array" ref="AD19">--INDEX(_xlfn.TEXTSPLIT(AC19,","),4)/1172</f>
+        <v>2.2926621160409555</v>
+      </c>
+    </row>
+    <row r="20" spans="6:30" x14ac:dyDescent="0.2">
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20">
+        <v>512</v>
+      </c>
+      <c r="V20">
+        <v>512</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>100</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA20">
+        <v>23.7</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD20" cm="1">
+        <f t="array" ref="AD20">--INDEX(_xlfn.TEXTSPLIT(AC20,","),4)/1172</f>
+        <v>2.2841296928327646</v>
+      </c>
+    </row>
+    <row r="21" spans="6:30" x14ac:dyDescent="0.2">
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="AD21">
+        <f>AVERAGE(AD19:AD20)</f>
+        <v>2.28839590443686</v>
+      </c>
+    </row>
+    <row r="22" spans="6:30" x14ac:dyDescent="0.2">
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
+      <c r="R22" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22">
+        <v>512</v>
+      </c>
+      <c r="V22">
+        <v>512</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>100</v>
+      </c>
       <c r="Z22" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="25" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="AA22">
+        <v>23.7</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD22" cm="1">
+        <f t="array" ref="AD22">--INDEX(_xlfn.TEXTSPLIT(AC22,","),4)/1172</f>
+        <v>2.348976109215017</v>
+      </c>
+    </row>
+    <row r="23" spans="6:30" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23">
+        <v>512</v>
+      </c>
+      <c r="V23">
+        <v>512</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>100</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA23">
+        <v>23.7</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD23" cm="1">
+        <f t="array" ref="AD23">--INDEX(_xlfn.TEXTSPLIT(AC23,","),4)/1172</f>
+        <v>2.2909556313993176</v>
+      </c>
+    </row>
+    <row r="24" spans="6:30" x14ac:dyDescent="0.2">
+      <c r="AD24">
+        <f>AVERAGE(AD22:AD23)</f>
+        <v>2.3199658703071675</v>
+      </c>
+    </row>
+    <row r="25" spans="6:30" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25">
+        <v>512</v>
+      </c>
+      <c r="V25">
+        <v>512</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
+      </c>
       <c r="Z25" t="s">
         <v>263</v>
       </c>
       <c r="AA25">
         <v>15</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD25" cm="1">
+        <f t="array" ref="AD25">--INDEX(_xlfn.TEXTSPLIT(AC25,","),4)/1172</f>
+        <v>2.1715017064846416</v>
+      </c>
+    </row>
+    <row r="26" spans="6:30" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26">
+        <v>512</v>
+      </c>
+      <c r="V26">
+        <v>512</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>100</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD26" cm="1">
+        <f t="array" ref="AD26">--INDEX(_xlfn.TEXTSPLIT(AC26,","),4)/1172</f>
+        <v>2.1843003412969284</v>
+      </c>
+    </row>
+    <row r="27" spans="6:30" x14ac:dyDescent="0.2">
+      <c r="AD27">
+        <f>AVERAGE(AD25:AD26)</f>
+        <v>2.1779010238907848</v>
       </c>
     </row>
   </sheetData>
@@ -45413,8 +46176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E89DAA0-8AA0-F247-8626-C062B2B43DC4}">
   <dimension ref="A1:AB258"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45495,8 +46258,8 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>AB15</f>
-        <v>0,0,0,2;77,0,0,2;156,0,0,2;232,0,0,2;307,0,0,1;378,0,0,1;446,0,0,1;510,0,0,2;568,0,0,1;621,0,0,3;668,0,0,4;709,0,0,5;743,0,0,6;770,0,0,153;789,0,0,301;801,0,0,449;804,0,0,597;801,0,0,736;789,0,0,874;770,0,0,1010;743,0,0,1133;710,0,0,1254;669,0,0,1359;622,0,0,1453;569,0,0,1535;511,0,0,1609;447,0,0,1667;379,0,0,1713;308,0,0,1741;234,0,0,1755;157,0,0,1758;79,0,0,1743;0,0,0,-2;-77,0,0,-2;-156,0,0,-2;-232,0,0,-2;-307,0,0,-2;-378,0,0,-2;-446,0,0,-1;-510,0,0,-2;-568,0,0,-2;-621,0,0,-2;-668,0,0,-2;-709,0,0,-3;-743,0,0,-2;-770,0,0,-4;-789,0,0,-6;-801,0,0,-117;-804,0,0,-269;-801,0,0,-422;-789,0,0,-564;-770,0,0,-709;-743,0,0,-837;-710,0,0,-964;-669,0,0,-1076;-622,0,0,-1176;-569,0,0,-1265;-511,0,0,-1344;-447,0,0,-1411;-379,0,0,-1459;-308,0,0,-1492;-234,0,0,-1515;-157,0,0,-1520;-79,0,0,-1511;0,0,0,2;77,0,0,2;156,0,0,1;232,0,0,2;307,0,0,2;378,0,0,2;446,0,0,2;510,0,0,1;568,0,0,2;621,0,0,2;668,0,0,2;709,0,0,2;743,0,0,5;770,0,0,6;789,0,0,139;801,0,0,290;804,0,0,445;801,0,0,596;789,0,0,739;770,0,0,874;743,0,0,1001;710,0,0,1128;669,0,0,1239;622,0,0,1334;569,0,0,1423;511,0,0,1498;447,0,0,1560;379,0,0,1607;308,0,0,1641;234,0,0,1661;157,0,0,1663;79,0,0,1653;0,0,0,0;-77,0,0,-2;-156,0,0,-2;-232,0,0,-8;-307,0,0,-2;-378,0,0,-2;-446,0,0,-2;-510,0,0,-2;-568,0,0,-2;-621,0,0,-1;-668,0,0,-2;-709,0,0,-2;-743,0,0,-4;-770,0,0,-4;-789,0,0,-9;-801,0,0,-174;-804,0,0,-328;-801,0,0,-475;-789,0,0,-618;-770,0,0,-758;-743,0,0,-890;-710,0,0,-1015;-669,0,0,-1128;-622,0,0,-1226;-569,0,0,-1314;-511,0,0,-1391;-447,0,0,-1453;-379,0,0,-1505;-308,0,0,-1538;-234,0,0,-1558;-157,0,0,-1562;-79,0,0,-1554;0,0,0,2;77,0,0,1;156,0,0,2;232,0,0,2;307,0,0,2;378,0,0,2;446,0,0,2;510,0,0,2;568,0,0,2;621,0,0,2;668,0,0,2;709,0,0,3;743,0,0,4;770,0,0,6;789,0,0,106;801,0,0,257;804,0,0,409;801,0,0,558;789,0,0,707;770,0,0,842;743,0,0,971;710,0,0,1094;669,0,0,1204;622,0,0,1306;569,0,0,1394;511,0,0,1471;447,0,0,1532;379,0,0,1579;308,0,0,1615;234,0,0,1633;157,0,0,1637;79,0,0,1627;0,0,0,-2;-77,0,0,-2;-156,0,0,-2;-232,0,0,-2;-307,0,0,-2;-378,0,0,-1;-446,0,0,-2;-510,0,0,-1;-568,0,0,-2;-621,0,0,-2;-668,0,0,-2;-709,0,0,-2;-743,0,0,-4;-770,0,0,-6;-789,0,0,-42;-801,0,0,-197;-804,0,0,-350;-801,0,0,-499;-789,0,0,-640;-770,0,0,-781;-743,0,0,-910;-710,0,0,-1033;-669,0,0,-1144;-622,0,0,-1248;-569,0,0,-1335;-511,0,0,-1409;-447,0,0,-1472;-379,0,0,-1520;-308,0,0,-1556;-234,0,0,-1573;-157,0,0,-1578;-79,0,0,-1571;0,0,0,2;77,0,0,2;156,0,0,2;232,0,0,2;307,0,0,2;378,0,0,2;446,0,0,2;510,0,0,2;568,0,0,2;621,0,0,2;668,0,0,2;709,0,0,2;743,0,0,4;770,0,0,6;789,0,0,94;801,0,0,246;804,0,0,401;801,0,0,550;789,0,0,691;770,0,0,832;743,0,0,962;710,0,0,1088;669,0,0,1200;622,0,0,1298;569,0,0,1385;511,0,0,1461;447,0,0,1527;379,0,0,1575;308,0,0,1607;234,0,0,1625;157,0,0,1630;79,0,0,1622;0,0,0,-1;-77,0,0,-1;-156,0,0,-3;-232,0,0,-2;-307,0,0,-2;-378,0,0,-1;-446,0,0,-2;-510,0,0,-2;-568,0,0,-2;-621,0,0,-2;-668,0,0,-2;-709,0,0,-2;-743,0,0,-4;-770,0,0,-5;-789,0,0,-44;-801,0,0,-198;-804,0,0,-352;-801,0,0,-500;-789,0,0,-642;-770,0,0,-781;-743,0,0,-913;-710,0,0,-1038;-669,0,0,-1150;-622,0,0,-1247;-569,0,0,-1335;-511,0,0,-1411;-447,0,0,-1475;-379,0,0,-1523;-308,0,0,-1560;-234,0,0,-1576;-157,0,0,-1581;-79,0,0,-1572;</v>
+        <f>AB11</f>
+        <v>0,0,0,2;77,0,0,2;156,0,0,1;232,0,0,2;307,0,0,2;378,0,0,2;446,0,0,0;510,0,0,2;568,0,0,3;621,0,0,6;668,0,0,86;709,0,0,244;743,0,0,411;770,0,0,576;789,0,0,749;801,0,0,920;804,0,0,1095;801,0,0,1260;789,0,0,1427;770,0,0,1582;743,0,0,1729;710,0,0,1869;669,0,0,1994;622,0,0,2109;569,0,0,2209;511,0,0,2295;447,0,0,2364;379,0,0,2419;308,0,0,2454;234,0,0,2476;157,0,0,2480;79,0,0,2464;0,0,0,-2;-77,0,0,-1;-156,0,0,-2;-232,0,0,-1;-307,0,0,-2;-378,0,0,-2;-446,0,0,-2;-510,0,0,-1;-568,0,0,-2;-621,0,0,-2;-668,0,0,-2;-709,0,0,-2;-743,0,0,-2;-770,0,0,-2;-789,0,0,-2;-801,0,0,-3;-804,0,0,-4;-801,0,0,-57;-789,0,0,-232;-770,0,0,-400;-743,0,0,-563;-710,0,0,-716;-669,0,0,-857;-622,0,0,-981;-569,0,0,-1094;-511,0,0,-1196;-447,0,0,-1277;-379,0,0,-1348;-308,0,0,-1399;-234,0,0,-1432;-157,0,0,-1451;-79,0,0,-1450;0,0,0,2;77,0,0,2;156,0,0,2;232,0,0,4;307,0,0,2;378,0,0,2;446,0,0,1;510,0,0,2;568,0,0,2;621,0,0,2;668,0,0,2;709,0,0,5;743,0,0,90;770,0,0,261;789,0,0,445;801,0,0,620;804,0,0,796;801,0,0,966;789,0,0,1133;770,0,0,1293;743,0,0,1440;710,0,0,1579;669,0,0,1711;622,0,0,1819;569,0,0,1920;511,0,0,2007;447,0,0,2081;379,0,0,2133;308,0,0,2170;234,0,0,2193;157,0,0,2197;79,0,0,2183;0,0,0,0;-77,0,0,-2;-156,0,0,-2;-232,0,0,-2;-307,0,0,-2;-378,0,0,-2;-446,0,0,-1;-510,0,0,-2;-568,0,0,-2;-621,0,0,0;-668,0,0,-1;-709,0,0,-1;-743,0,0,0;-770,0,0,-2;-789,0,0,-2;-801,0,0,-6;-804,0,0,-121;-801,0,0,-301;-789,0,0,-476;-770,0,0,-643;-743,0,0,-806;-710,0,0,-960;-669,0,0,-1105;-622,0,0,-1231;-569,0,0,-1345;-511,0,0,-1437;-447,0,0,-1527;-379,0,0,-1594;-308,0,0,-1641;-234,0,0,-1678;-157,0,0,-1690;-79,0,0,-1688;0,0,0,2;77,0,0,2;156,0,0,2;232,0,0,2;307,0,0,2;378,0,0,2;446,0,0,2;510,0,0,2;568,0,0,1;621,0,0,2;668,0,0,2;709,0,0,2;743,0,0,4;770,0,0,6;789,0,0,173;801,0,0,349;804,0,0,525;801,0,0,697;789,0,0,864;770,0,0,1022;743,0,0,1177;710,0,0,1316;669,0,0,1448;622,0,0,1564;569,0,0,1669;511,0,0,1760;447,0,0,1837;379,0,0,1897;308,0,0,1939;234,0,0,1966;157,0,0,1978;79,0,0,1968;0,0,0,-2;-77,0,0,-3;-156,0,0,-2;-232,0,0,-2;-307,0,0,-2;-378,0,0,-4;-446,0,0,-3;-510,0,0,-2;-568,0,0,-2;-621,0,0,-2;-668,0,0,-2;-709,0,0,-2;-743,0,0,-2;-770,0,0,-3;-789,0,0,-6;-801,0,0,-176;-804,0,0,-358;-801,0,0,-539;-789,0,0,-708;-770,0,0,-880;-743,0,0,-1032;-710,0,0,-1184;-669,0,0,-1313;-622,0,0,-1435;-569,0,0,-1543;-511,0,0,-1636;-447,0,0,-1712;-379,0,0,-1773;-308,0,0,-1814;-234,0,0,-1839;-157,0,0,-1850;-79,0,0,-1842;0,0,0,1;77,0,0,2;156,0,0,2;232,0,0,2;307,0,0,5;378,0,0,2;446,0,0,2;510,0,0,2;568,0,0,2;621,0,0,2;668,0,0,2;709,0,0,2;743,0,0,2;770,0,0,4;789,0,0,10;801,0,0,202;804,0,0,383;801,0,0,559;789,0,0,731;770,0,0,896;743,0,0,1051;710,0,0,1208;669,0,0,1333;622,0,0,1456;569,0,0,1564;511,0,0,1662;447,0,0,1742;379,0,0,1807;308,0,0,1851;234,0,0,1879;157,0,0,1892;79,0,0,1886;0,0,0,-2;-77,0,0,-1;-156,0,0,-2;-232,0,0,-2;-307,0,0,-2;-378,0,0,-2;-446,0,0,-2;-510,0,0,-2;-568,0,0,-2;-621,0,0,-1;-668,0,0,-2;-709,0,0,-2;-743,0,0,-2;-770,0,0,-3;-789,0,0,-13;-801,0,0,-202;-804,0,0,-381;-801,0,0,-556;-789,0,0,-723;-770,0,0,-889;-743,0,0,-1048;-710,0,0,-1187;-669,0,0,-1321;-622,0,0,-1443;-569,0,0,-1550;-511,0,0,-1643;-447,0,0,-1722;-379,0,0,-1785;-308,0,0,-1829;-234,0,0,-1859;-157,0,0,-1871;-79,0,0,-1863;</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -45594,7 +46357,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
@@ -45610,7 +46373,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>1.6117216117216117E-3</v>
+        <v>8.0586080586080586E-4</v>
       </c>
       <c r="K5" t="e">
         <f t="shared" si="4"/>
@@ -45697,7 +46460,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
@@ -45713,7 +46476,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>8.0586080586080586E-4</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K7" t="e">
         <f t="shared" si="4"/>
@@ -45750,7 +46513,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
@@ -45766,7 +46529,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>8.0586080586080586E-4</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K8" t="e">
         <f t="shared" si="4"/>
@@ -45800,7 +46563,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
@@ -45816,7 +46579,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="3"/>
-        <v>8.0586080586080586E-4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="e">
         <f t="shared" si="4"/>
@@ -45900,7 +46663,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -45916,7 +46679,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>8.0586080586080586E-4</v>
+        <v>2.4175824175824171E-3</v>
       </c>
       <c r="K11" t="e">
         <f t="shared" si="4"/>
@@ -45950,7 +46713,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -45966,7 +46729,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>2.4175824175824171E-3</v>
+        <v>4.8351648351648343E-3</v>
       </c>
       <c r="K12" t="e">
         <f t="shared" si="4"/>
@@ -45988,7 +46751,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -46004,7 +46767,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
-        <v>3.2234432234432234E-3</v>
+        <v>6.9304029304029305E-2</v>
       </c>
       <c r="K13" t="e">
         <f t="shared" si="4"/>
@@ -46042,7 +46805,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
@@ -46058,7 +46821,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>4.0293040293040297E-3</v>
+        <v>0.19663003663003661</v>
       </c>
       <c r="K14" t="e">
         <f t="shared" si="4"/>
@@ -46096,7 +46859,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>411</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
@@ -46112,7 +46875,7 @@
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>4.8351648351648343E-3</v>
+        <v>0.33120879120879121</v>
       </c>
       <c r="K15" t="e">
         <f t="shared" si="4"/>
@@ -46150,7 +46913,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>153</v>
+        <v>576</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
@@ -46166,7 +46929,7 @@
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>0.12329670329670329</v>
+        <v>0.46417582417582415</v>
       </c>
       <c r="K16" t="e">
         <f t="shared" si="4"/>
@@ -46188,7 +46951,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>301</v>
+        <v>749</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
@@ -46204,7 +46967,7 @@
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>0.24256410256410255</v>
+        <v>0.6035897435897436</v>
       </c>
       <c r="K17" t="e">
         <f t="shared" si="4"/>
@@ -46226,7 +46989,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>449</v>
+        <v>920</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
@@ -46242,7 +47005,7 @@
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>0.36183150183150181</v>
+        <v>0.74139194139194142</v>
       </c>
       <c r="K18" t="e">
         <f t="shared" si="4"/>
@@ -46264,7 +47027,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>597</v>
+        <v>1095</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
@@ -46280,7 +47043,7 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>0.48109890109890108</v>
+        <v>0.88241758241758239</v>
       </c>
       <c r="K19" t="e">
         <f t="shared" si="4"/>
@@ -46302,7 +47065,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>736</v>
+        <v>1260</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
@@ -46318,7 +47081,7 @@
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>0.59311355311355307</v>
+        <v>1.0153846153846153</v>
       </c>
       <c r="K20" t="e">
         <f t="shared" si="4"/>
@@ -46340,7 +47103,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>874</v>
+        <v>1427</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
@@ -46356,7 +47119,7 @@
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>0.70432234432234431</v>
+        <v>1.1499633699633698</v>
       </c>
       <c r="K21" t="e">
         <f t="shared" si="4"/>
@@ -46378,7 +47141,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1010</v>
+        <v>1582</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
@@ -46394,7 +47157,7 @@
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>0.81391941391941391</v>
+        <v>1.2748717948717947</v>
       </c>
       <c r="K22" t="e">
         <f t="shared" si="4"/>
@@ -46416,7 +47179,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1133</v>
+        <v>1729</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
@@ -46432,7 +47195,7 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
-        <v>0.91304029304029299</v>
+        <v>1.3933333333333333</v>
       </c>
       <c r="K23" t="e">
         <f t="shared" si="4"/>
@@ -46454,7 +47217,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1254</v>
+        <v>1869</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
@@ -46470,7 +47233,7 @@
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>1.0105494505494506</v>
+        <v>1.5061538461538462</v>
       </c>
       <c r="K24" t="e">
         <f t="shared" si="4"/>
@@ -46492,7 +47255,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1359</v>
+        <v>1994</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
@@ -46508,7 +47271,7 @@
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
-        <v>1.0951648351648351</v>
+        <v>1.6068864468864468</v>
       </c>
       <c r="K25" t="e">
         <f t="shared" si="4"/>
@@ -46530,7 +47293,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1453</v>
+        <v>2109</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
@@ -46546,7 +47309,7 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
-        <v>1.1709157509157508</v>
+        <v>1.6995604395604396</v>
       </c>
       <c r="K26" t="e">
         <f t="shared" si="4"/>
@@ -46568,7 +47331,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1535</v>
+        <v>2209</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
@@ -46584,7 +47347,7 @@
       </c>
       <c r="J27" s="6">
         <f t="shared" si="3"/>
-        <v>1.236996336996337</v>
+        <v>1.7801465201465201</v>
       </c>
       <c r="K27" t="e">
         <f t="shared" si="4"/>
@@ -46606,7 +47369,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1609</v>
+        <v>2295</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
@@ -46622,7 +47385,7 @@
       </c>
       <c r="J28" s="6">
         <f t="shared" si="3"/>
-        <v>1.2966300366300365</v>
+        <v>1.8494505494505495</v>
       </c>
       <c r="K28" t="e">
         <f t="shared" si="4"/>
@@ -46644,7 +47407,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1667</v>
+        <v>2364</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
@@ -46660,7 +47423,7 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" si="3"/>
-        <v>1.3433699633699632</v>
+        <v>1.905054945054945</v>
       </c>
       <c r="K29" t="e">
         <f t="shared" si="4"/>
@@ -46682,7 +47445,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1713</v>
+        <v>2419</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
@@ -46698,7 +47461,7 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="3"/>
-        <v>1.3804395604395603</v>
+        <v>1.9493772893772894</v>
       </c>
       <c r="K30" t="e">
         <f t="shared" si="4"/>
@@ -46720,7 +47483,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1741</v>
+        <v>2454</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="0"/>
@@ -46736,7 +47499,7 @@
       </c>
       <c r="J31" s="6">
         <f t="shared" si="3"/>
-        <v>1.4030036630036629</v>
+        <v>1.9775824175824175</v>
       </c>
       <c r="K31" t="e">
         <f t="shared" si="4"/>
@@ -46758,7 +47521,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1755</v>
+        <v>2476</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
@@ -46774,7 +47537,7 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="3"/>
-        <v>1.4142857142857144</v>
+        <v>1.9953113553113551</v>
       </c>
       <c r="K32" t="e">
         <f t="shared" si="4"/>
@@ -46796,7 +47559,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1758</v>
+        <v>2480</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
@@ -46812,7 +47575,7 @@
       </c>
       <c r="J33" s="6">
         <f t="shared" si="3"/>
-        <v>1.4167032967032966</v>
+        <v>1.9985347985347985</v>
       </c>
       <c r="K33" t="e">
         <f t="shared" si="4"/>
@@ -46834,7 +47597,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1743</v>
+        <v>2464</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
@@ -46850,7 +47613,7 @@
       </c>
       <c r="J34" s="6">
         <f t="shared" si="3"/>
-        <v>1.4046153846153846</v>
+        <v>1.9856410256410255</v>
       </c>
       <c r="K34" t="e">
         <f t="shared" si="4"/>
@@ -46910,7 +47673,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
@@ -46926,7 +47689,7 @@
       </c>
       <c r="J36" s="6">
         <f t="shared" si="3"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K36" t="e">
         <f t="shared" si="4"/>
@@ -46986,7 +47749,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="0"/>
@@ -47002,7 +47765,7 @@
       </c>
       <c r="J38" s="6">
         <f t="shared" si="3"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K38" t="e">
         <f t="shared" si="4"/>
@@ -47100,7 +47863,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="0"/>
@@ -47116,7 +47879,7 @@
       </c>
       <c r="J41" s="6">
         <f t="shared" si="3"/>
-        <v>-8.0586080586080586E-4</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K41" t="e">
         <f t="shared" si="4"/>
@@ -47138,7 +47901,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="0"/>
@@ -47154,7 +47917,7 @@
       </c>
       <c r="J42" s="6">
         <f t="shared" si="3"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K42" t="e">
         <f t="shared" si="4"/>
@@ -47290,7 +48053,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="0"/>
@@ -47306,7 +48069,7 @@
       </c>
       <c r="J46" s="6">
         <f t="shared" si="3"/>
-        <v>-2.4175824175824171E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K46" t="e">
         <f t="shared" si="4"/>
@@ -47366,7 +48129,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="0"/>
@@ -47382,7 +48145,7 @@
       </c>
       <c r="J48" s="6">
         <f t="shared" si="3"/>
-        <v>-3.2234432234432234E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K48" t="e">
         <f t="shared" si="4"/>
@@ -47404,7 +48167,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="0"/>
@@ -47420,7 +48183,7 @@
       </c>
       <c r="J49" s="6">
         <f t="shared" si="3"/>
-        <v>-4.8351648351648343E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K49" t="e">
         <f t="shared" si="4"/>
@@ -47442,7 +48205,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-117</v>
+        <v>-3</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="0"/>
@@ -47458,7 +48221,7 @@
       </c>
       <c r="J50" s="6">
         <f t="shared" si="3"/>
-        <v>-9.4285714285714278E-2</v>
+        <v>-2.4175824175824171E-3</v>
       </c>
       <c r="K50" t="e">
         <f t="shared" si="4"/>
@@ -47480,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-269</v>
+        <v>-4</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="0"/>
@@ -47496,7 +48259,7 @@
       </c>
       <c r="J51" s="6">
         <f t="shared" si="3"/>
-        <v>-0.21677655677655677</v>
+        <v>-3.2234432234432234E-3</v>
       </c>
       <c r="K51" t="e">
         <f t="shared" si="4"/>
@@ -47518,7 +48281,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-422</v>
+        <v>-57</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="0"/>
@@ -47534,7 +48297,7 @@
       </c>
       <c r="J52" s="6">
         <f t="shared" si="3"/>
-        <v>-0.34007326007326005</v>
+        <v>-4.5934065934065932E-2</v>
       </c>
       <c r="K52" t="e">
         <f t="shared" si="4"/>
@@ -47556,7 +48319,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-564</v>
+        <v>-232</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="0"/>
@@ -47572,7 +48335,7 @@
       </c>
       <c r="J53" s="6">
         <f t="shared" si="3"/>
-        <v>-0.45450549450549443</v>
+        <v>-0.18695970695970693</v>
       </c>
       <c r="K53" t="e">
         <f t="shared" si="4"/>
@@ -47594,7 +48357,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-709</v>
+        <v>-400</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" si="0"/>
@@ -47610,7 +48373,7 @@
       </c>
       <c r="J54" s="6">
         <f t="shared" si="3"/>
-        <v>-0.57135531135531126</v>
+        <v>-0.32234432234432236</v>
       </c>
       <c r="K54" t="e">
         <f t="shared" si="4"/>
@@ -47632,7 +48395,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-837</v>
+        <v>-563</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="0"/>
@@ -47648,7 +48411,7 @@
       </c>
       <c r="J55" s="6">
         <f t="shared" si="3"/>
-        <v>-0.67450549450549446</v>
+        <v>-0.45369963369963368</v>
       </c>
       <c r="K55" t="e">
         <f t="shared" si="4"/>
@@ -47670,7 +48433,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-964</v>
+        <v>-716</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="0"/>
@@ -47686,7 +48449,7 @@
       </c>
       <c r="J56" s="6">
         <f t="shared" si="3"/>
-        <v>-0.7768498168498168</v>
+        <v>-0.5769963369963369</v>
       </c>
       <c r="K56" t="e">
         <f t="shared" si="4"/>
@@ -47708,7 +48471,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1076</v>
+        <v>-857</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="0"/>
@@ -47724,7 +48487,7 @@
       </c>
       <c r="J57" s="6">
         <f t="shared" si="3"/>
-        <v>-0.86710622710622709</v>
+        <v>-0.69062271062271063</v>
       </c>
       <c r="K57" t="e">
         <f t="shared" si="4"/>
@@ -47746,7 +48509,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-1176</v>
+        <v>-981</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="0"/>
@@ -47762,7 +48525,7 @@
       </c>
       <c r="J58" s="6">
         <f t="shared" si="3"/>
-        <v>-0.94769230769230761</v>
+        <v>-0.79054945054945047</v>
       </c>
       <c r="K58" t="e">
         <f t="shared" si="4"/>
@@ -47784,7 +48547,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-1265</v>
+        <v>-1094</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="0"/>
@@ -47800,7 +48563,7 @@
       </c>
       <c r="J59" s="6">
         <f t="shared" si="3"/>
-        <v>-1.0194139194139193</v>
+        <v>-0.88161172161172152</v>
       </c>
       <c r="K59" t="e">
         <f t="shared" si="4"/>
@@ -47822,7 +48585,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1344</v>
+        <v>-1196</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="0"/>
@@ -47838,7 +48601,7 @@
       </c>
       <c r="J60" s="6">
         <f t="shared" si="3"/>
-        <v>-1.083076923076923</v>
+        <v>-0.96380952380952378</v>
       </c>
       <c r="K60" t="e">
         <f t="shared" si="4"/>
@@ -47860,7 +48623,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-1411</v>
+        <v>-1277</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" si="0"/>
@@ -47876,7 +48639,7 @@
       </c>
       <c r="J61" s="6">
         <f t="shared" si="3"/>
-        <v>-1.1370695970695972</v>
+        <v>-1.0290842490842489</v>
       </c>
       <c r="K61" t="e">
         <f t="shared" si="4"/>
@@ -47898,7 +48661,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1459</v>
+        <v>-1348</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" si="0"/>
@@ -47914,7 +48677,7 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" si="3"/>
-        <v>-1.1757509157509156</v>
+        <v>-1.0863003663003663</v>
       </c>
       <c r="K62" t="e">
         <f t="shared" si="4"/>
@@ -47936,7 +48699,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-1492</v>
+        <v>-1399</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" si="0"/>
@@ -47952,7 +48715,7 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" si="3"/>
-        <v>-1.2023443223443222</v>
+        <v>-1.1273992673992674</v>
       </c>
       <c r="K63" t="e">
         <f t="shared" si="4"/>
@@ -47974,7 +48737,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-1515</v>
+        <v>-1432</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" si="0"/>
@@ -47990,7 +48753,7 @@
       </c>
       <c r="J64" s="6">
         <f t="shared" si="3"/>
-        <v>-1.220879120879121</v>
+        <v>-1.1539926739926738</v>
       </c>
       <c r="K64" t="e">
         <f t="shared" si="4"/>
@@ -48012,7 +48775,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-1520</v>
+        <v>-1451</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" si="0"/>
@@ -48028,7 +48791,7 @@
       </c>
       <c r="J65" s="6">
         <f t="shared" si="3"/>
-        <v>-1.224908424908425</v>
+        <v>-1.1693040293040293</v>
       </c>
       <c r="K65" t="e">
         <f t="shared" si="4"/>
@@ -48050,7 +48813,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-1511</v>
+        <v>-1450</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" si="0"/>
@@ -48066,7 +48829,7 @@
       </c>
       <c r="J66" s="6">
         <f t="shared" si="3"/>
-        <v>-1.2176556776556777</v>
+        <v>-1.1684981684981686</v>
       </c>
       <c r="K66" t="e">
         <f t="shared" si="4"/>
@@ -48164,7 +48927,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" si="6"/>
@@ -48180,7 +48943,7 @@
       </c>
       <c r="J69" s="6">
         <f t="shared" si="9"/>
-        <v>8.0586080586080586E-4</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K69" t="e">
         <f t="shared" si="10"/>
@@ -48202,7 +48965,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" s="4">
         <f t="shared" si="6"/>
@@ -48218,7 +48981,7 @@
       </c>
       <c r="J70" s="6">
         <f t="shared" si="9"/>
-        <v>1.6117216117216117E-3</v>
+        <v>3.2234432234432234E-3</v>
       </c>
       <c r="K70" t="e">
         <f t="shared" si="10"/>
@@ -48316,7 +49079,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="6"/>
@@ -48332,7 +49095,7 @@
       </c>
       <c r="J73" s="6">
         <f t="shared" si="9"/>
-        <v>1.6117216117216117E-3</v>
+        <v>8.0586080586080586E-4</v>
       </c>
       <c r="K73" t="e">
         <f t="shared" si="10"/>
@@ -48354,7 +49117,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="6"/>
@@ -48370,7 +49133,7 @@
       </c>
       <c r="J74" s="6">
         <f t="shared" si="9"/>
-        <v>8.0586080586080586E-4</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K74" t="e">
         <f t="shared" si="10"/>
@@ -48506,7 +49269,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" si="6"/>
@@ -48522,7 +49285,7 @@
       </c>
       <c r="J78" s="6">
         <f t="shared" si="9"/>
-        <v>1.6117216117216117E-3</v>
+        <v>4.0293040293040297E-3</v>
       </c>
       <c r="K78" t="e">
         <f t="shared" si="10"/>
@@ -48544,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" si="6"/>
@@ -48560,7 +49323,7 @@
       </c>
       <c r="J79" s="6">
         <f t="shared" si="9"/>
-        <v>4.0293040293040297E-3</v>
+        <v>7.2527472527472533E-2</v>
       </c>
       <c r="K79" t="e">
         <f t="shared" si="10"/>
@@ -48582,7 +49345,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" si="6"/>
@@ -48598,7 +49361,7 @@
       </c>
       <c r="J80" s="6">
         <f t="shared" si="9"/>
-        <v>4.8351648351648343E-3</v>
+        <v>0.21032967032967032</v>
       </c>
       <c r="K80" t="e">
         <f t="shared" si="10"/>
@@ -48620,7 +49383,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>139</v>
+        <v>445</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" si="6"/>
@@ -48636,7 +49399,7 @@
       </c>
       <c r="J81" s="6">
         <f t="shared" si="9"/>
-        <v>0.11201465201465201</v>
+        <v>0.35860805860805861</v>
       </c>
       <c r="K81" t="e">
         <f t="shared" si="10"/>
@@ -48658,7 +49421,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>290</v>
+        <v>620</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" si="6"/>
@@ -48674,7 +49437,7 @@
       </c>
       <c r="J82" s="6">
         <f t="shared" si="9"/>
-        <v>0.2336996336996337</v>
+        <v>0.49963369963369964</v>
       </c>
       <c r="K82" t="e">
         <f t="shared" si="10"/>
@@ -48696,7 +49459,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>445</v>
+        <v>796</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" si="6"/>
@@ -48712,7 +49475,7 @@
       </c>
       <c r="J83" s="6">
         <f t="shared" si="9"/>
-        <v>0.35860805860805861</v>
+        <v>0.64146520146520136</v>
       </c>
       <c r="K83" t="e">
         <f t="shared" si="10"/>
@@ -48734,7 +49497,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>596</v>
+        <v>966</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" si="6"/>
@@ -48750,7 +49513,7 @@
       </c>
       <c r="J84" s="6">
         <f t="shared" si="9"/>
-        <v>0.48029304029304026</v>
+        <v>0.77846153846153843</v>
       </c>
       <c r="K84" t="e">
         <f t="shared" si="10"/>
@@ -48772,7 +49535,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>739</v>
+        <v>1133</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" si="6"/>
@@ -48788,7 +49551,7 @@
       </c>
       <c r="J85" s="6">
         <f t="shared" si="9"/>
-        <v>0.59553113553113546</v>
+        <v>0.91304029304029299</v>
       </c>
       <c r="K85" t="e">
         <f t="shared" si="10"/>
@@ -48810,7 +49573,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>874</v>
+        <v>1293</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" si="6"/>
@@ -48826,7 +49589,7 @@
       </c>
       <c r="J86" s="6">
         <f t="shared" si="9"/>
-        <v>0.70432234432234431</v>
+        <v>1.0419780219780219</v>
       </c>
       <c r="K86" t="e">
         <f t="shared" si="10"/>
@@ -48848,7 +49611,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1001</v>
+        <v>1440</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" si="6"/>
@@ -48864,7 +49627,7 @@
       </c>
       <c r="J87" s="6">
         <f t="shared" si="9"/>
-        <v>0.80666666666666664</v>
+        <v>1.1604395604395605</v>
       </c>
       <c r="K87" t="e">
         <f t="shared" si="10"/>
@@ -48886,7 +49649,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1128</v>
+        <v>1579</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" si="6"/>
@@ -48902,7 +49665,7 @@
       </c>
       <c r="J88" s="6">
         <f t="shared" si="9"/>
-        <v>0.90901098901098887</v>
+        <v>1.2724542124542124</v>
       </c>
       <c r="K88" t="e">
         <f t="shared" si="10"/>
@@ -48924,7 +49687,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1239</v>
+        <v>1711</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" si="6"/>
@@ -48940,7 +49703,7 @@
       </c>
       <c r="J89" s="6">
         <f t="shared" si="9"/>
-        <v>0.9984615384615384</v>
+        <v>1.3788278388278385</v>
       </c>
       <c r="K89" t="e">
         <f t="shared" si="10"/>
@@ -48962,7 +49725,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1334</v>
+        <v>1819</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" si="6"/>
@@ -48978,7 +49741,7 @@
       </c>
       <c r="J90" s="6">
         <f t="shared" si="9"/>
-        <v>1.075018315018315</v>
+        <v>1.4658608058608058</v>
       </c>
       <c r="K90" t="e">
         <f t="shared" si="10"/>
@@ -49000,7 +49763,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1423</v>
+        <v>1920</v>
       </c>
       <c r="G91" s="4">
         <f t="shared" si="6"/>
@@ -49016,7 +49779,7 @@
       </c>
       <c r="J91" s="6">
         <f t="shared" si="9"/>
-        <v>1.1467399267399268</v>
+        <v>1.5472527472527473</v>
       </c>
       <c r="K91" t="e">
         <f t="shared" si="10"/>
@@ -49038,7 +49801,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1498</v>
+        <v>2007</v>
       </c>
       <c r="G92" s="4">
         <f t="shared" si="6"/>
@@ -49054,7 +49817,7 @@
       </c>
       <c r="J92" s="6">
         <f t="shared" si="9"/>
-        <v>1.2071794871794872</v>
+        <v>1.6173626373626373</v>
       </c>
       <c r="K92" t="e">
         <f t="shared" si="10"/>
@@ -49076,7 +49839,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1560</v>
+        <v>2081</v>
       </c>
       <c r="G93" s="4">
         <f t="shared" si="6"/>
@@ -49092,7 +49855,7 @@
       </c>
       <c r="J93" s="6">
         <f t="shared" si="9"/>
-        <v>1.2571428571428571</v>
+        <v>1.6769963369963368</v>
       </c>
       <c r="K93" t="e">
         <f t="shared" si="10"/>
@@ -49114,7 +49877,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1607</v>
+        <v>2133</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" si="6"/>
@@ -49130,7 +49893,7 @@
       </c>
       <c r="J94" s="6">
         <f t="shared" si="9"/>
-        <v>1.295018315018315</v>
+        <v>1.7189010989010989</v>
       </c>
       <c r="K94" t="e">
         <f t="shared" si="10"/>
@@ -49152,7 +49915,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1641</v>
+        <v>2170</v>
       </c>
       <c r="G95" s="4">
         <f t="shared" si="6"/>
@@ -49168,7 +49931,7 @@
       </c>
       <c r="J95" s="6">
         <f t="shared" si="9"/>
-        <v>1.3224175824175823</v>
+        <v>1.7487179487179487</v>
       </c>
       <c r="K95" t="e">
         <f t="shared" si="10"/>
@@ -49190,7 +49953,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1661</v>
+        <v>2193</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="6"/>
@@ -49206,7 +49969,7 @@
       </c>
       <c r="J96" s="6">
         <f t="shared" si="9"/>
-        <v>1.3385347985347984</v>
+        <v>1.7672527472527471</v>
       </c>
       <c r="K96" t="e">
         <f t="shared" si="10"/>
@@ -49228,7 +49991,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1663</v>
+        <v>2197</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" si="6"/>
@@ -49244,7 +50007,7 @@
       </c>
       <c r="J97" s="6">
         <f t="shared" si="9"/>
-        <v>1.3401465201465201</v>
+        <v>1.7704761904761903</v>
       </c>
       <c r="K97" t="e">
         <f t="shared" si="10"/>
@@ -49266,7 +50029,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1653</v>
+        <v>2183</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" si="6"/>
@@ -49282,7 +50045,7 @@
       </c>
       <c r="J98" s="6">
         <f t="shared" si="9"/>
-        <v>1.3320879120879121</v>
+        <v>1.759194139194139</v>
       </c>
       <c r="K98" t="e">
         <f t="shared" si="10"/>
@@ -49418,7 +50181,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" si="6"/>
@@ -49434,7 +50197,7 @@
       </c>
       <c r="J102" s="6">
         <f t="shared" si="9"/>
-        <v>-6.4468864468864469E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K102" t="e">
         <f t="shared" si="10"/>
@@ -49532,7 +50295,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G105" s="4">
         <f t="shared" si="12"/>
@@ -49548,7 +50311,7 @@
       </c>
       <c r="J105" s="6">
         <f t="shared" si="15"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K105" t="e">
         <f t="shared" si="16"/>
@@ -49646,7 +50409,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="4">
         <f t="shared" si="12"/>
@@ -49662,7 +50425,7 @@
       </c>
       <c r="J108" s="6">
         <f t="shared" si="15"/>
-        <v>-8.0586080586080586E-4</v>
+        <v>0</v>
       </c>
       <c r="K108" t="e">
         <f t="shared" si="16"/>
@@ -49684,7 +50447,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G109" s="4">
         <f t="shared" si="12"/>
@@ -49700,7 +50463,7 @@
       </c>
       <c r="J109" s="6">
         <f t="shared" si="15"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K109" t="e">
         <f t="shared" si="16"/>
@@ -49722,7 +50485,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G110" s="4">
         <f t="shared" si="12"/>
@@ -49738,7 +50501,7 @@
       </c>
       <c r="J110" s="6">
         <f t="shared" si="15"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K110" t="e">
         <f t="shared" si="16"/>
@@ -49760,7 +50523,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G111" s="4">
         <f t="shared" si="12"/>
@@ -49776,7 +50539,7 @@
       </c>
       <c r="J111" s="6">
         <f t="shared" si="15"/>
-        <v>-3.2234432234432234E-3</v>
+        <v>0</v>
       </c>
       <c r="K111" t="e">
         <f t="shared" si="16"/>
@@ -49798,7 +50561,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G112" s="4">
         <f t="shared" si="12"/>
@@ -49814,7 +50577,7 @@
       </c>
       <c r="J112" s="6">
         <f t="shared" si="15"/>
-        <v>-3.2234432234432234E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K112" t="e">
         <f t="shared" si="16"/>
@@ -49836,7 +50599,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="G113" s="4">
         <f t="shared" si="12"/>
@@ -49852,7 +50615,7 @@
       </c>
       <c r="J113" s="6">
         <f t="shared" si="15"/>
-        <v>-7.2527472527472523E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K113" t="e">
         <f t="shared" si="16"/>
@@ -49874,7 +50637,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>-174</v>
+        <v>-6</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="12"/>
@@ -49890,7 +50653,7 @@
       </c>
       <c r="J114" s="6">
         <f t="shared" si="15"/>
-        <v>-0.14021978021978021</v>
+        <v>-4.8351648351648343E-3</v>
       </c>
       <c r="K114" t="e">
         <f t="shared" si="16"/>
@@ -49912,7 +50675,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>-328</v>
+        <v>-121</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="12"/>
@@ -49928,7 +50691,7 @@
       </c>
       <c r="J115" s="6">
         <f t="shared" si="15"/>
-        <v>-0.2643223443223443</v>
+        <v>-9.7509157509157493E-2</v>
       </c>
       <c r="K115" t="e">
         <f t="shared" si="16"/>
@@ -49950,7 +50713,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>-475</v>
+        <v>-301</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="12"/>
@@ -49966,7 +50729,7 @@
       </c>
       <c r="J116" s="6">
         <f t="shared" si="15"/>
-        <v>-0.38278388278388276</v>
+        <v>-0.24256410256410255</v>
       </c>
       <c r="K116" t="e">
         <f t="shared" si="16"/>
@@ -49988,7 +50751,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>-618</v>
+        <v>-476</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="12"/>
@@ -50004,7 +50767,7 @@
       </c>
       <c r="J117" s="6">
         <f t="shared" si="15"/>
-        <v>-0.49802197802197801</v>
+        <v>-0.38358974358974357</v>
       </c>
       <c r="K117" t="e">
         <f t="shared" si="16"/>
@@ -50026,7 +50789,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>-758</v>
+        <v>-643</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="12"/>
@@ -50042,7 +50805,7 @@
       </c>
       <c r="J118" s="6">
         <f t="shared" si="15"/>
-        <v>-0.61084249084249087</v>
+        <v>-0.51816849816849819</v>
       </c>
       <c r="K118" t="e">
         <f t="shared" si="16"/>
@@ -50064,7 +50827,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>-890</v>
+        <v>-806</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="12"/>
@@ -50080,7 +50843,7 @@
       </c>
       <c r="J119" s="6">
         <f t="shared" si="15"/>
-        <v>-0.71721611721611722</v>
+        <v>-0.6495238095238095</v>
       </c>
       <c r="K119" t="e">
         <f t="shared" si="16"/>
@@ -50102,7 +50865,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>-1015</v>
+        <v>-960</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="12"/>
@@ -50118,7 +50881,7 @@
       </c>
       <c r="J120" s="6">
         <f t="shared" si="15"/>
-        <v>-0.81794871794871793</v>
+        <v>-0.77362637362637365</v>
       </c>
       <c r="K120" t="e">
         <f t="shared" si="16"/>
@@ -50140,7 +50903,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>-1128</v>
+        <v>-1105</v>
       </c>
       <c r="G121" s="4">
         <f t="shared" si="12"/>
@@ -50156,7 +50919,7 @@
       </c>
       <c r="J121" s="6">
         <f t="shared" si="15"/>
-        <v>-0.90901098901098887</v>
+        <v>-0.89047619047619042</v>
       </c>
       <c r="K121" t="e">
         <f t="shared" si="16"/>
@@ -50178,7 +50941,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>-1226</v>
+        <v>-1231</v>
       </c>
       <c r="G122" s="4">
         <f t="shared" si="12"/>
@@ -50194,7 +50957,7 @@
       </c>
       <c r="J122" s="6">
         <f t="shared" si="15"/>
-        <v>-0.98798534798534787</v>
+        <v>-0.992014652014652</v>
       </c>
       <c r="K122" t="e">
         <f t="shared" si="16"/>
@@ -50216,7 +50979,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>-1314</v>
+        <v>-1345</v>
       </c>
       <c r="G123" s="4">
         <f t="shared" si="12"/>
@@ -50232,7 +50995,7 @@
       </c>
       <c r="J123" s="6">
         <f t="shared" si="15"/>
-        <v>-1.058901098901099</v>
+        <v>-1.0838827838827838</v>
       </c>
       <c r="K123" t="e">
         <f t="shared" si="16"/>
@@ -50254,7 +51017,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>-1391</v>
+        <v>-1437</v>
       </c>
       <c r="G124" s="4">
         <f t="shared" si="12"/>
@@ -50270,7 +51033,7 @@
       </c>
       <c r="J124" s="6">
         <f t="shared" si="15"/>
-        <v>-1.1209523809523809</v>
+        <v>-1.1580219780219778</v>
       </c>
       <c r="K124" t="e">
         <f t="shared" si="16"/>
@@ -50292,7 +51055,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>-1453</v>
+        <v>-1527</v>
       </c>
       <c r="G125" s="4">
         <f t="shared" si="12"/>
@@ -50308,7 +51071,7 @@
       </c>
       <c r="J125" s="6">
         <f t="shared" si="15"/>
-        <v>-1.1709157509157508</v>
+        <v>-1.2305494505494503</v>
       </c>
       <c r="K125" t="e">
         <f t="shared" si="16"/>
@@ -50330,7 +51093,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>-1505</v>
+        <v>-1594</v>
       </c>
       <c r="G126" s="4">
         <f t="shared" si="12"/>
@@ -50346,7 +51109,7 @@
       </c>
       <c r="J126" s="6">
         <f t="shared" si="15"/>
-        <v>-1.2128205128205127</v>
+        <v>-1.2845421245421245</v>
       </c>
       <c r="K126" t="e">
         <f t="shared" si="16"/>
@@ -50368,7 +51131,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>-1538</v>
+        <v>-1641</v>
       </c>
       <c r="G127" s="4">
         <f t="shared" si="12"/>
@@ -50384,7 +51147,7 @@
       </c>
       <c r="J127" s="6">
         <f t="shared" si="15"/>
-        <v>-1.2394139194139193</v>
+        <v>-1.3224175824175823</v>
       </c>
       <c r="K127" t="e">
         <f t="shared" si="16"/>
@@ -50406,7 +51169,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>-1558</v>
+        <v>-1678</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" si="12"/>
@@ -50422,7 +51185,7 @@
       </c>
       <c r="J128" s="6">
         <f t="shared" si="15"/>
-        <v>-1.2555311355311354</v>
+        <v>-1.3522344322344322</v>
       </c>
       <c r="K128" t="e">
         <f t="shared" si="16"/>
@@ -50444,7 +51207,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>-1562</v>
+        <v>-1690</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="12"/>
@@ -50460,7 +51223,7 @@
       </c>
       <c r="J129" s="6">
         <f t="shared" si="15"/>
-        <v>-1.2587545787545786</v>
+        <v>-1.361904761904762</v>
       </c>
       <c r="K129" t="e">
         <f t="shared" si="16"/>
@@ -50482,7 +51245,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>-1554</v>
+        <v>-1688</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" si="12"/>
@@ -50498,7 +51261,7 @@
       </c>
       <c r="J130" s="6">
         <f t="shared" si="15"/>
-        <v>-1.2523076923076923</v>
+        <v>-1.3602930402930402</v>
       </c>
       <c r="K130" t="e">
         <f t="shared" si="16"/>
@@ -50558,7 +51321,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="4">
         <f t="shared" si="17"/>
@@ -50574,7 +51337,7 @@
       </c>
       <c r="J132" s="6">
         <f t="shared" si="20"/>
-        <v>8.0586080586080586E-4</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K132" t="e">
         <f t="shared" si="21"/>
@@ -50824,7 +51587,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" s="4">
         <f t="shared" si="17"/>
@@ -50840,7 +51603,7 @@
       </c>
       <c r="J139" s="6">
         <f t="shared" si="20"/>
-        <v>1.6117216117216117E-3</v>
+        <v>8.0586080586080586E-4</v>
       </c>
       <c r="K139" t="e">
         <f t="shared" si="21"/>
@@ -50938,7 +51701,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142" s="4">
         <f t="shared" si="17"/>
@@ -50954,7 +51717,7 @@
       </c>
       <c r="J142" s="6">
         <f t="shared" si="20"/>
-        <v>2.4175824175824171E-3</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K142" t="e">
         <f t="shared" si="21"/>
@@ -51052,7 +51815,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="G145" s="4">
         <f t="shared" si="17"/>
@@ -51068,7 +51831,7 @@
       </c>
       <c r="J145" s="6">
         <f t="shared" si="20"/>
-        <v>8.5421245421245406E-2</v>
+        <v>0.1394139194139194</v>
       </c>
       <c r="K145" t="e">
         <f t="shared" si="21"/>
@@ -51090,7 +51853,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="G146" s="4">
         <f t="shared" si="17"/>
@@ -51106,7 +51869,7 @@
       </c>
       <c r="J146" s="6">
         <f t="shared" si="20"/>
-        <v>0.20710622710622709</v>
+        <v>0.28124542124542123</v>
       </c>
       <c r="K146" t="e">
         <f t="shared" si="21"/>
@@ -51128,7 +51891,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>409</v>
+        <v>525</v>
       </c>
       <c r="G147" s="4">
         <f t="shared" si="17"/>
@@ -51144,7 +51907,7 @@
       </c>
       <c r="J147" s="6">
         <f t="shared" si="20"/>
-        <v>0.32959706959706953</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="K147" t="e">
         <f t="shared" si="21"/>
@@ -51166,7 +51929,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>558</v>
+        <v>697</v>
       </c>
       <c r="G148" s="4">
         <f t="shared" si="17"/>
@@ -51182,7 +51945,7 @@
       </c>
       <c r="J148" s="6">
         <f t="shared" si="20"/>
-        <v>0.44967032967032966</v>
+        <v>0.56168498168498171</v>
       </c>
       <c r="K148" t="e">
         <f t="shared" si="21"/>
@@ -51204,7 +51967,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>707</v>
+        <v>864</v>
       </c>
       <c r="G149" s="4">
         <f t="shared" si="17"/>
@@ -51220,7 +51983,7 @@
       </c>
       <c r="J149" s="6">
         <f t="shared" si="20"/>
-        <v>0.56974358974358974</v>
+        <v>0.69626373626373617</v>
       </c>
       <c r="K149" t="e">
         <f t="shared" si="21"/>
@@ -51242,7 +52005,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>842</v>
+        <v>1022</v>
       </c>
       <c r="G150" s="4">
         <f t="shared" si="17"/>
@@ -51258,7 +52021,7 @@
       </c>
       <c r="J150" s="6">
         <f t="shared" si="20"/>
-        <v>0.67853479853479848</v>
+        <v>0.82358974358974357</v>
       </c>
       <c r="K150" t="e">
         <f t="shared" si="21"/>
@@ -51280,7 +52043,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>971</v>
+        <v>1177</v>
       </c>
       <c r="G151" s="4">
         <f t="shared" si="17"/>
@@ -51296,7 +52059,7 @@
       </c>
       <c r="J151" s="6">
         <f t="shared" si="20"/>
-        <v>0.78249084249084244</v>
+        <v>0.94849816849816848</v>
       </c>
       <c r="K151" t="e">
         <f t="shared" si="21"/>
@@ -51318,7 +52081,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1094</v>
+        <v>1316</v>
       </c>
       <c r="G152" s="4">
         <f t="shared" si="17"/>
@@ -51334,7 +52097,7 @@
       </c>
       <c r="J152" s="6">
         <f t="shared" si="20"/>
-        <v>0.88161172161172152</v>
+        <v>1.0605128205128205</v>
       </c>
       <c r="K152" t="e">
         <f t="shared" si="21"/>
@@ -51356,7 +52119,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1204</v>
+        <v>1448</v>
       </c>
       <c r="G153" s="4">
         <f t="shared" si="17"/>
@@ -51372,7 +52135,7 @@
       </c>
       <c r="J153" s="6">
         <f t="shared" si="20"/>
-        <v>0.97025641025641018</v>
+        <v>1.1668864468864468</v>
       </c>
       <c r="K153" t="e">
         <f t="shared" si="21"/>
@@ -51394,7 +52157,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1306</v>
+        <v>1564</v>
       </c>
       <c r="G154" s="4">
         <f t="shared" si="17"/>
@@ -51410,7 +52173,7 @@
       </c>
       <c r="J154" s="6">
         <f t="shared" si="20"/>
-        <v>1.0524542124542124</v>
+        <v>1.2603663003663004</v>
       </c>
       <c r="K154" t="e">
         <f t="shared" si="21"/>
@@ -51432,7 +52195,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1394</v>
+        <v>1669</v>
       </c>
       <c r="G155" s="4">
         <f t="shared" si="17"/>
@@ -51448,7 +52211,7 @@
       </c>
       <c r="J155" s="6">
         <f t="shared" si="20"/>
-        <v>1.1233699633699634</v>
+        <v>1.3449816849816849</v>
       </c>
       <c r="K155" t="e">
         <f t="shared" si="21"/>
@@ -51470,7 +52233,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1471</v>
+        <v>1760</v>
       </c>
       <c r="G156" s="4">
         <f t="shared" si="17"/>
@@ -51486,7 +52249,7 @@
       </c>
       <c r="J156" s="6">
         <f t="shared" si="20"/>
-        <v>1.1854212454212454</v>
+        <v>1.4183150183150184</v>
       </c>
       <c r="K156" t="e">
         <f t="shared" si="21"/>
@@ -51508,7 +52271,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1532</v>
+        <v>1837</v>
       </c>
       <c r="G157" s="4">
         <f t="shared" si="17"/>
@@ -51524,7 +52287,7 @@
       </c>
       <c r="J157" s="6">
         <f t="shared" si="20"/>
-        <v>1.2345787545787545</v>
+        <v>1.4803663003663001</v>
       </c>
       <c r="K157" t="e">
         <f t="shared" si="21"/>
@@ -51546,7 +52309,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1579</v>
+        <v>1897</v>
       </c>
       <c r="G158" s="4">
         <f t="shared" si="17"/>
@@ -51562,7 +52325,7 @@
       </c>
       <c r="J158" s="6">
         <f t="shared" si="20"/>
-        <v>1.2724542124542124</v>
+        <v>1.5287179487179485</v>
       </c>
       <c r="K158" t="e">
         <f t="shared" si="21"/>
@@ -51584,7 +52347,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1615</v>
+        <v>1939</v>
       </c>
       <c r="G159" s="4">
         <f t="shared" si="17"/>
@@ -51600,7 +52363,7 @@
       </c>
       <c r="J159" s="6">
         <f t="shared" si="20"/>
-        <v>1.3014652014652015</v>
+        <v>1.5625641025641026</v>
       </c>
       <c r="K159" t="e">
         <f t="shared" si="21"/>
@@ -51622,7 +52385,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1633</v>
+        <v>1966</v>
       </c>
       <c r="G160" s="4">
         <f t="shared" si="17"/>
@@ -51638,7 +52401,7 @@
       </c>
       <c r="J160" s="6">
         <f t="shared" si="20"/>
-        <v>1.3159706959706958</v>
+        <v>1.5843223443223442</v>
       </c>
       <c r="K160" t="e">
         <f t="shared" si="21"/>
@@ -51660,7 +52423,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1637</v>
+        <v>1978</v>
       </c>
       <c r="G161" s="4">
         <f t="shared" si="17"/>
@@ -51676,7 +52439,7 @@
       </c>
       <c r="J161" s="6">
         <f t="shared" si="20"/>
-        <v>1.3191941391941391</v>
+        <v>1.593992673992674</v>
       </c>
       <c r="K161" t="e">
         <f t="shared" si="21"/>
@@ -51698,7 +52461,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1627</v>
+        <v>1968</v>
       </c>
       <c r="G162" s="4">
         <f t="shared" si="17"/>
@@ -51714,7 +52477,7 @@
       </c>
       <c r="J162" s="6">
         <f t="shared" si="20"/>
-        <v>1.3111355311355311</v>
+        <v>1.5859340659340659</v>
       </c>
       <c r="K162" t="e">
         <f t="shared" si="21"/>
@@ -51774,7 +52537,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G164" s="4">
         <f t="shared" si="17"/>
@@ -51790,7 +52553,7 @@
       </c>
       <c r="J164" s="6">
         <f t="shared" si="20"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-2.4175824175824171E-3</v>
       </c>
       <c r="K164" t="e">
         <f t="shared" si="21"/>
@@ -51926,7 +52689,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G168" s="4">
         <f t="shared" si="17"/>
@@ -51942,7 +52705,7 @@
       </c>
       <c r="J168" s="6">
         <f t="shared" si="20"/>
-        <v>-8.0586080586080586E-4</v>
+        <v>-3.2234432234432234E-3</v>
       </c>
       <c r="K168" t="e">
         <f t="shared" si="21"/>
@@ -51964,7 +52727,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G169" s="4">
         <f t="shared" si="17"/>
@@ -51980,7 +52743,7 @@
       </c>
       <c r="J169" s="6">
         <f t="shared" si="20"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-2.4175824175824171E-3</v>
       </c>
       <c r="K169" t="e">
         <f t="shared" si="21"/>
@@ -52002,7 +52765,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G170" s="4">
         <f t="shared" si="17"/>
@@ -52018,7 +52781,7 @@
       </c>
       <c r="J170" s="6">
         <f t="shared" si="20"/>
-        <v>-8.0586080586080586E-4</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K170" t="e">
         <f t="shared" si="21"/>
@@ -52192,7 +52955,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G175" s="4">
         <f t="shared" si="17"/>
@@ -52208,7 +52971,7 @@
       </c>
       <c r="J175" s="6">
         <f t="shared" si="20"/>
-        <v>-3.2234432234432234E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K175" t="e">
         <f t="shared" si="21"/>
@@ -52230,7 +52993,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="G176" s="4">
         <f t="shared" si="17"/>
@@ -52246,7 +53009,7 @@
       </c>
       <c r="J176" s="6">
         <f t="shared" si="20"/>
-        <v>-4.8351648351648343E-3</v>
+        <v>-2.4175824175824171E-3</v>
       </c>
       <c r="K176" t="e">
         <f t="shared" si="21"/>
@@ -52268,7 +53031,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>-42</v>
+        <v>-6</v>
       </c>
       <c r="G177" s="4">
         <f t="shared" si="17"/>
@@ -52284,7 +53047,7 @@
       </c>
       <c r="J177" s="6">
         <f t="shared" si="20"/>
-        <v>-3.3846153846153845E-2</v>
+        <v>-4.8351648351648343E-3</v>
       </c>
       <c r="K177" t="e">
         <f t="shared" si="21"/>
@@ -52306,7 +53069,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>-197</v>
+        <v>-176</v>
       </c>
       <c r="G178" s="4">
         <f t="shared" si="17"/>
@@ -52322,7 +53085,7 @@
       </c>
       <c r="J178" s="6">
         <f t="shared" si="20"/>
-        <v>-0.15875457875457874</v>
+        <v>-0.14183150183150181</v>
       </c>
       <c r="K178" t="e">
         <f t="shared" si="21"/>
@@ -52344,7 +53107,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>-350</v>
+        <v>-358</v>
       </c>
       <c r="G179" s="4">
         <f t="shared" si="17"/>
@@ -52360,7 +53123,7 @@
       </c>
       <c r="J179" s="6">
         <f t="shared" si="20"/>
-        <v>-0.28205128205128205</v>
+        <v>-0.28849816849816845</v>
       </c>
       <c r="K179" t="e">
         <f t="shared" si="21"/>
@@ -52382,7 +53145,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>-499</v>
+        <v>-539</v>
       </c>
       <c r="G180" s="4">
         <f t="shared" si="17"/>
@@ -52398,7 +53161,7 @@
       </c>
       <c r="J180" s="6">
         <f t="shared" si="20"/>
-        <v>-0.40212454212454207</v>
+        <v>-0.4343589743589743</v>
       </c>
       <c r="K180" t="e">
         <f t="shared" si="21"/>
@@ -52420,7 +53183,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>-640</v>
+        <v>-708</v>
       </c>
       <c r="G181" s="4">
         <f t="shared" si="17"/>
@@ -52436,7 +53199,7 @@
       </c>
       <c r="J181" s="6">
         <f t="shared" si="20"/>
-        <v>-0.51575091575091581</v>
+        <v>-0.57054945054945061</v>
       </c>
       <c r="K181" t="e">
         <f t="shared" si="21"/>
@@ -52458,7 +53221,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>-781</v>
+        <v>-880</v>
       </c>
       <c r="G182" s="4">
         <f t="shared" si="17"/>
@@ -52474,7 +53237,7 @@
       </c>
       <c r="J182" s="6">
         <f t="shared" si="20"/>
-        <v>-0.62937728937728932</v>
+        <v>-0.70915750915750919</v>
       </c>
       <c r="K182" t="e">
         <f t="shared" si="21"/>
@@ -52496,7 +53259,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>-910</v>
+        <v>-1032</v>
       </c>
       <c r="G183" s="4">
         <f t="shared" si="17"/>
@@ -52512,7 +53275,7 @@
       </c>
       <c r="J183" s="6">
         <f t="shared" si="20"/>
-        <v>-0.73333333333333328</v>
+        <v>-0.8316483516483516</v>
       </c>
       <c r="K183" t="e">
         <f t="shared" si="21"/>
@@ -52534,7 +53297,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>-1033</v>
+        <v>-1184</v>
       </c>
       <c r="G184" s="4">
         <f t="shared" si="17"/>
@@ -52550,7 +53313,7 @@
       </c>
       <c r="J184" s="6">
         <f t="shared" si="20"/>
-        <v>-0.83245421245421236</v>
+        <v>-0.95413919413919412</v>
       </c>
       <c r="K184" t="e">
         <f t="shared" si="21"/>
@@ -52572,7 +53335,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>-1144</v>
+        <v>-1313</v>
       </c>
       <c r="G185" s="4">
         <f t="shared" si="17"/>
@@ -52588,7 +53351,7 @@
       </c>
       <c r="J185" s="6">
         <f t="shared" si="20"/>
-        <v>-0.92190476190476189</v>
+        <v>-1.058095238095238</v>
       </c>
       <c r="K185" t="e">
         <f t="shared" si="21"/>
@@ -52610,7 +53373,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>-1248</v>
+        <v>-1435</v>
       </c>
       <c r="G186" s="4">
         <f t="shared" si="17"/>
@@ -52626,7 +53389,7 @@
       </c>
       <c r="J186" s="6">
         <f t="shared" si="20"/>
-        <v>-1.0057142857142856</v>
+        <v>-1.1564102564102565</v>
       </c>
       <c r="K186" t="e">
         <f t="shared" si="21"/>
@@ -52648,7 +53411,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>-1335</v>
+        <v>-1543</v>
       </c>
       <c r="G187" s="4">
         <f t="shared" si="17"/>
@@ -52664,7 +53427,7 @@
       </c>
       <c r="J187" s="6">
         <f t="shared" si="20"/>
-        <v>-1.0758241758241758</v>
+        <v>-1.2434432234432233</v>
       </c>
       <c r="K187" t="e">
         <f t="shared" si="21"/>
@@ -52686,7 +53449,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>-1409</v>
+        <v>-1636</v>
       </c>
       <c r="G188" s="4">
         <f t="shared" si="17"/>
@@ -52702,7 +53465,7 @@
       </c>
       <c r="J188" s="6">
         <f t="shared" si="20"/>
-        <v>-1.1354578754578755</v>
+        <v>-1.3183882783882781</v>
       </c>
       <c r="K188" t="e">
         <f t="shared" si="21"/>
@@ -52724,7 +53487,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>-1472</v>
+        <v>-1712</v>
       </c>
       <c r="G189" s="4">
         <f t="shared" si="17"/>
@@ -52740,7 +53503,7 @@
       </c>
       <c r="J189" s="6">
         <f t="shared" si="20"/>
-        <v>-1.1862271062271061</v>
+        <v>-1.3796336996336995</v>
       </c>
       <c r="K189" t="e">
         <f t="shared" si="21"/>
@@ -52762,7 +53525,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>-1520</v>
+        <v>-1773</v>
       </c>
       <c r="G190" s="4">
         <f t="shared" si="17"/>
@@ -52778,7 +53541,7 @@
       </c>
       <c r="J190" s="6">
         <f t="shared" si="20"/>
-        <v>-1.224908424908425</v>
+        <v>-1.4287912087912087</v>
       </c>
       <c r="K190" t="e">
         <f t="shared" si="21"/>
@@ -52800,7 +53563,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>-1556</v>
+        <v>-1814</v>
       </c>
       <c r="G191" s="4">
         <f t="shared" si="17"/>
@@ -52816,7 +53579,7 @@
       </c>
       <c r="J191" s="6">
         <f t="shared" si="20"/>
-        <v>-1.2539194139194136</v>
+        <v>-1.4618315018315018</v>
       </c>
       <c r="K191" t="e">
         <f t="shared" si="21"/>
@@ -52838,7 +53601,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>-1573</v>
+        <v>-1839</v>
       </c>
       <c r="G192" s="4">
         <f t="shared" si="17"/>
@@ -52854,7 +53617,7 @@
       </c>
       <c r="J192" s="6">
         <f t="shared" si="20"/>
-        <v>-1.2676190476190474</v>
+        <v>-1.4819780219780219</v>
       </c>
       <c r="K192" t="e">
         <f t="shared" si="21"/>
@@ -52876,7 +53639,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>-1578</v>
+        <v>-1850</v>
       </c>
       <c r="G193" s="4">
         <f t="shared" si="17"/>
@@ -52892,7 +53655,7 @@
       </c>
       <c r="J193" s="6">
         <f t="shared" si="20"/>
-        <v>-1.2716483516483517</v>
+        <v>-1.4908424908424909</v>
       </c>
       <c r="K193" t="e">
         <f t="shared" si="21"/>
@@ -52914,7 +53677,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>-1571</v>
+        <v>-1842</v>
       </c>
       <c r="G194" s="4">
         <f t="shared" si="17"/>
@@ -52930,7 +53693,7 @@
       </c>
       <c r="J194" s="6">
         <f t="shared" si="20"/>
-        <v>-1.2660073260073259</v>
+        <v>-1.4843956043956044</v>
       </c>
       <c r="K194" t="e">
         <f t="shared" si="21"/>
@@ -52952,7 +53715,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" ref="G195:G258" si="23">C195*3.3/1023</f>
@@ -52968,7 +53731,7 @@
       </c>
       <c r="J195" s="6">
         <f t="shared" ref="J195:J258" si="26">F195*3.3/4095</f>
-        <v>1.6117216117216117E-3</v>
+        <v>8.0586080586080586E-4</v>
       </c>
       <c r="K195" t="e">
         <f t="shared" ref="K195:K258" si="27">F195/E195</f>
@@ -53104,7 +53867,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G199" s="4">
         <f t="shared" si="23"/>
@@ -53120,7 +53883,7 @@
       </c>
       <c r="J199" s="6">
         <f t="shared" si="26"/>
-        <v>1.6117216117216117E-3</v>
+        <v>4.0293040293040297E-3</v>
       </c>
       <c r="K199" t="e">
         <f t="shared" si="27"/>
@@ -53408,7 +54171,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G207" s="4">
         <f t="shared" si="23"/>
@@ -53424,7 +54187,7 @@
       </c>
       <c r="J207" s="6">
         <f t="shared" si="26"/>
-        <v>3.2234432234432234E-3</v>
+        <v>1.6117216117216117E-3</v>
       </c>
       <c r="K207" t="e">
         <f t="shared" si="27"/>
@@ -53446,7 +54209,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G208" s="4">
         <f t="shared" si="23"/>
@@ -53462,7 +54225,7 @@
       </c>
       <c r="J208" s="6">
         <f t="shared" si="26"/>
-        <v>4.8351648351648343E-3</v>
+        <v>3.2234432234432234E-3</v>
       </c>
       <c r="K208" t="e">
         <f t="shared" si="27"/>
@@ -53484,7 +54247,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G209" s="4">
         <f t="shared" si="23"/>
@@ -53500,7 +54263,7 @@
       </c>
       <c r="J209" s="6">
         <f t="shared" si="26"/>
-        <v>7.5750915750915748E-2</v>
+        <v>8.0586080586080595E-3</v>
       </c>
       <c r="K209" t="e">
         <f t="shared" si="27"/>
@@ -53522,7 +54285,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="G210" s="4">
         <f t="shared" si="23"/>
@@ -53538,7 +54301,7 @@
       </c>
       <c r="J210" s="6">
         <f t="shared" si="26"/>
-        <v>0.19824175824175824</v>
+        <v>0.16278388278388276</v>
       </c>
       <c r="K210" t="e">
         <f t="shared" si="27"/>
@@ -53560,7 +54323,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G211" s="4">
         <f t="shared" si="23"/>
@@ -53576,7 +54339,7 @@
       </c>
       <c r="J211" s="6">
         <f t="shared" si="26"/>
-        <v>0.32315018315018312</v>
+        <v>0.30864468864468864</v>
       </c>
       <c r="K211" t="e">
         <f t="shared" si="27"/>
@@ -53598,7 +54361,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G212" s="4">
         <f t="shared" si="23"/>
@@ -53614,7 +54377,7 @@
       </c>
       <c r="J212" s="6">
         <f t="shared" si="26"/>
-        <v>0.4432234432234432</v>
+        <v>0.45047619047619042</v>
       </c>
       <c r="K212" t="e">
         <f t="shared" si="27"/>
@@ -53636,7 +54399,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="G213" s="4">
         <f t="shared" si="23"/>
@@ -53652,7 +54415,7 @@
       </c>
       <c r="J213" s="6">
         <f t="shared" si="26"/>
-        <v>0.55684981684981683</v>
+        <v>0.58908424908424906</v>
       </c>
       <c r="K213" t="e">
         <f t="shared" si="27"/>
@@ -53674,7 +54437,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>832</v>
+        <v>896</v>
       </c>
       <c r="G214" s="4">
         <f t="shared" si="23"/>
@@ -53690,7 +54453,7 @@
       </c>
       <c r="J214" s="6">
         <f t="shared" si="26"/>
-        <v>0.67047619047619045</v>
+        <v>0.722051282051282</v>
       </c>
       <c r="K214" t="e">
         <f t="shared" si="27"/>
@@ -53712,7 +54475,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>962</v>
+        <v>1051</v>
       </c>
       <c r="G215" s="4">
         <f t="shared" si="23"/>
@@ -53728,7 +54491,7 @@
       </c>
       <c r="J215" s="6">
         <f t="shared" si="26"/>
-        <v>0.77523809523809517</v>
+        <v>0.8469597069597069</v>
       </c>
       <c r="K215" t="e">
         <f t="shared" si="27"/>
@@ -53750,7 +54513,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1088</v>
+        <v>1208</v>
       </c>
       <c r="G216" s="4">
         <f t="shared" si="23"/>
@@ -53766,7 +54529,7 @@
       </c>
       <c r="J216" s="6">
         <f t="shared" si="26"/>
-        <v>0.87677655677655664</v>
+        <v>0.97347985347985344</v>
       </c>
       <c r="K216" t="e">
         <f t="shared" si="27"/>
@@ -53788,7 +54551,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="G217" s="4">
         <f t="shared" si="23"/>
@@ -53804,7 +54567,7 @@
       </c>
       <c r="J217" s="6">
         <f t="shared" si="26"/>
-        <v>0.96703296703296704</v>
+        <v>1.074212454212454</v>
       </c>
       <c r="K217" t="e">
         <f t="shared" si="27"/>
@@ -53826,7 +54589,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1298</v>
+        <v>1456</v>
       </c>
       <c r="G218" s="4">
         <f t="shared" si="23"/>
@@ -53842,7 +54605,7 @@
       </c>
       <c r="J218" s="6">
         <f t="shared" si="26"/>
-        <v>1.0460073260073259</v>
+        <v>1.1733333333333333</v>
       </c>
       <c r="K218" t="e">
         <f t="shared" si="27"/>
@@ -53864,7 +54627,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1385</v>
+        <v>1564</v>
       </c>
       <c r="G219" s="4">
         <f t="shared" si="23"/>
@@ -53880,7 +54643,7 @@
       </c>
       <c r="J219" s="6">
         <f t="shared" si="26"/>
-        <v>1.1161172161172161</v>
+        <v>1.2603663003663004</v>
       </c>
       <c r="K219" t="e">
         <f t="shared" si="27"/>
@@ -53902,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1461</v>
+        <v>1662</v>
       </c>
       <c r="G220" s="4">
         <f t="shared" si="23"/>
@@ -53918,7 +54681,7 @@
       </c>
       <c r="J220" s="6">
         <f t="shared" si="26"/>
-        <v>1.1773626373626374</v>
+        <v>1.3393406593406592</v>
       </c>
       <c r="K220" t="e">
         <f t="shared" si="27"/>
@@ -53940,7 +54703,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1527</v>
+        <v>1742</v>
       </c>
       <c r="G221" s="4">
         <f t="shared" si="23"/>
@@ -53956,7 +54719,7 @@
       </c>
       <c r="J221" s="6">
         <f t="shared" si="26"/>
-        <v>1.2305494505494503</v>
+        <v>1.4038095238095236</v>
       </c>
       <c r="K221" t="e">
         <f t="shared" si="27"/>
@@ -53978,7 +54741,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1575</v>
+        <v>1807</v>
       </c>
       <c r="G222" s="4">
         <f t="shared" si="23"/>
@@ -53994,7 +54757,7 @@
       </c>
       <c r="J222" s="6">
         <f t="shared" si="26"/>
-        <v>1.2692307692307692</v>
+        <v>1.456190476190476</v>
       </c>
       <c r="K222" t="e">
         <f t="shared" si="27"/>
@@ -54016,7 +54779,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1607</v>
+        <v>1851</v>
       </c>
       <c r="G223" s="4">
         <f t="shared" si="23"/>
@@ -54032,7 +54795,7 @@
       </c>
       <c r="J223" s="6">
         <f t="shared" si="26"/>
-        <v>1.295018315018315</v>
+        <v>1.4916483516483514</v>
       </c>
       <c r="K223" t="e">
         <f t="shared" si="27"/>
@@ -54054,7 +54817,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1625</v>
+        <v>1879</v>
       </c>
       <c r="G224" s="4">
         <f t="shared" si="23"/>
@@ -54070,7 +54833,7 @@
       </c>
       <c r="J224" s="6">
         <f t="shared" si="26"/>
-        <v>1.3095238095238095</v>
+        <v>1.5142124542124542</v>
       </c>
       <c r="K224" t="e">
         <f t="shared" si="27"/>
@@ -54092,7 +54855,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1630</v>
+        <v>1892</v>
       </c>
       <c r="G225" s="4">
         <f t="shared" si="23"/>
@@ -54108,7 +54871,7 @@
       </c>
       <c r="J225" s="6">
         <f t="shared" si="26"/>
-        <v>1.3135531135531135</v>
+        <v>1.5246886446886445</v>
       </c>
       <c r="K225" t="e">
         <f t="shared" si="27"/>
@@ -54130,7 +54893,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1622</v>
+        <v>1886</v>
       </c>
       <c r="G226" s="4">
         <f t="shared" si="23"/>
@@ -54146,7 +54909,7 @@
       </c>
       <c r="J226" s="6">
         <f t="shared" si="26"/>
-        <v>1.307106227106227</v>
+        <v>1.5198534798534797</v>
       </c>
       <c r="K226" t="e">
         <f t="shared" si="27"/>
@@ -54168,7 +54931,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G227" s="4">
         <f t="shared" si="23"/>
@@ -54184,7 +54947,7 @@
       </c>
       <c r="J227" s="6">
         <f t="shared" si="26"/>
-        <v>-8.0586080586080586E-4</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K227" t="e">
         <f t="shared" si="27"/>
@@ -54244,7 +55007,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G229" s="4">
         <f t="shared" si="23"/>
@@ -54260,7 +55023,7 @@
       </c>
       <c r="J229" s="6">
         <f t="shared" si="26"/>
-        <v>-2.4175824175824171E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K229" t="e">
         <f t="shared" si="27"/>
@@ -54358,7 +55121,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G232" s="4">
         <f t="shared" si="23"/>
@@ -54374,7 +55137,7 @@
       </c>
       <c r="J232" s="6">
         <f t="shared" si="26"/>
-        <v>-8.0586080586080586E-4</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K232" t="e">
         <f t="shared" si="27"/>
@@ -54510,7 +55273,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G236" s="4">
         <f t="shared" si="23"/>
@@ -54526,7 +55289,7 @@
       </c>
       <c r="J236" s="6">
         <f t="shared" si="26"/>
-        <v>-1.6117216117216117E-3</v>
+        <v>-8.0586080586080586E-4</v>
       </c>
       <c r="K236" t="e">
         <f t="shared" si="27"/>
@@ -54624,7 +55387,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G239" s="4">
         <f t="shared" si="23"/>
@@ -54640,7 +55403,7 @@
       </c>
       <c r="J239" s="6">
         <f t="shared" si="26"/>
-        <v>-3.2234432234432234E-3</v>
+        <v>-1.6117216117216117E-3</v>
       </c>
       <c r="K239" t="e">
         <f t="shared" si="27"/>
@@ -54662,7 +55425,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G240" s="4">
         <f t="shared" si="23"/>
@@ -54678,7 +55441,7 @@
       </c>
       <c r="J240" s="6">
         <f t="shared" si="26"/>
-        <v>-4.0293040293040297E-3</v>
+        <v>-2.4175824175824171E-3</v>
       </c>
       <c r="K240" t="e">
         <f t="shared" si="27"/>
@@ -54700,7 +55463,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>-44</v>
+        <v>-13</v>
       </c>
       <c r="G241" s="4">
         <f t="shared" si="23"/>
@@ -54716,7 +55479,7 @@
       </c>
       <c r="J241" s="6">
         <f t="shared" si="26"/>
-        <v>-3.5457875457875453E-2</v>
+        <v>-1.0476190476190476E-2</v>
       </c>
       <c r="K241" t="e">
         <f t="shared" si="27"/>
@@ -54738,7 +55501,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-198</v>
+        <v>-202</v>
       </c>
       <c r="G242" s="4">
         <f t="shared" si="23"/>
@@ -54754,7 +55517,7 @@
       </c>
       <c r="J242" s="6">
         <f t="shared" si="26"/>
-        <v>-0.15956043956043955</v>
+        <v>-0.16278388278388276</v>
       </c>
       <c r="K242" t="e">
         <f t="shared" si="27"/>
@@ -54776,7 +55539,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>-352</v>
+        <v>-381</v>
       </c>
       <c r="G243" s="4">
         <f t="shared" si="23"/>
@@ -54792,7 +55555,7 @@
       </c>
       <c r="J243" s="6">
         <f t="shared" si="26"/>
-        <v>-0.28366300366300362</v>
+        <v>-0.30703296703296701</v>
       </c>
       <c r="K243" t="e">
         <f t="shared" si="27"/>
@@ -54814,7 +55577,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>-500</v>
+        <v>-556</v>
       </c>
       <c r="G244" s="4">
         <f t="shared" si="23"/>
@@ -54830,7 +55593,7 @@
       </c>
       <c r="J244" s="6">
         <f t="shared" si="26"/>
-        <v>-0.40293040293040294</v>
+        <v>-0.44805860805860803</v>
       </c>
       <c r="K244" t="e">
         <f t="shared" si="27"/>
@@ -54852,7 +55615,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>-642</v>
+        <v>-723</v>
       </c>
       <c r="G245" s="4">
         <f t="shared" si="23"/>
@@ -54868,7 +55631,7 @@
       </c>
       <c r="J245" s="6">
         <f t="shared" si="26"/>
-        <v>-0.51736263736263732</v>
+        <v>-0.58263736263736265</v>
       </c>
       <c r="K245" t="e">
         <f t="shared" si="27"/>
@@ -54890,7 +55653,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>-781</v>
+        <v>-889</v>
       </c>
       <c r="G246" s="4">
         <f t="shared" si="23"/>
@@ -54906,7 +55669,7 @@
       </c>
       <c r="J246" s="6">
         <f t="shared" si="26"/>
-        <v>-0.62937728937728932</v>
+        <v>-0.71641025641025635</v>
       </c>
       <c r="K246" t="e">
         <f t="shared" si="27"/>
@@ -54928,7 +55691,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>-913</v>
+        <v>-1048</v>
       </c>
       <c r="G247" s="4">
         <f t="shared" si="23"/>
@@ -54944,7 +55707,7 @@
       </c>
       <c r="J247" s="6">
         <f t="shared" si="26"/>
-        <v>-0.73575091575091567</v>
+        <v>-0.84454212454212441</v>
       </c>
       <c r="K247" t="e">
         <f t="shared" si="27"/>
@@ -54966,7 +55729,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>-1038</v>
+        <v>-1187</v>
       </c>
       <c r="G248" s="4">
         <f t="shared" si="23"/>
@@ -54982,7 +55745,7 @@
       </c>
       <c r="J248" s="6">
         <f t="shared" si="26"/>
-        <v>-0.83648351648351638</v>
+        <v>-0.95655677655677651</v>
       </c>
       <c r="K248" t="e">
         <f t="shared" si="27"/>
@@ -55004,7 +55767,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>-1150</v>
+        <v>-1321</v>
       </c>
       <c r="G249" s="4">
         <f t="shared" si="23"/>
@@ -55020,7 +55783,7 @@
       </c>
       <c r="J249" s="6">
         <f t="shared" si="26"/>
-        <v>-0.92673992673992678</v>
+        <v>-1.0645421245421245</v>
       </c>
       <c r="K249" t="e">
         <f t="shared" si="27"/>
@@ -55042,7 +55805,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>-1247</v>
+        <v>-1443</v>
       </c>
       <c r="G250" s="4">
         <f t="shared" si="23"/>
@@ -55058,7 +55821,7 @@
       </c>
       <c r="J250" s="6">
         <f t="shared" si="26"/>
-        <v>-1.0049084249084248</v>
+        <v>-1.1628571428571428</v>
       </c>
       <c r="K250" t="e">
         <f t="shared" si="27"/>
@@ -55080,7 +55843,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>-1335</v>
+        <v>-1550</v>
       </c>
       <c r="G251" s="4">
         <f t="shared" si="23"/>
@@ -55096,7 +55859,7 @@
       </c>
       <c r="J251" s="6">
         <f t="shared" si="26"/>
-        <v>-1.0758241758241758</v>
+        <v>-1.2490842490842491</v>
       </c>
       <c r="K251" t="e">
         <f t="shared" si="27"/>
@@ -55118,7 +55881,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>-1411</v>
+        <v>-1643</v>
       </c>
       <c r="G252" s="4">
         <f t="shared" si="23"/>
@@ -55134,7 +55897,7 @@
       </c>
       <c r="J252" s="6">
         <f t="shared" si="26"/>
-        <v>-1.1370695970695972</v>
+        <v>-1.3240293040293039</v>
       </c>
       <c r="K252" t="e">
         <f t="shared" si="27"/>
@@ -55156,7 +55919,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-1475</v>
+        <v>-1722</v>
       </c>
       <c r="G253" s="4">
         <f t="shared" si="23"/>
@@ -55172,7 +55935,7 @@
       </c>
       <c r="J253" s="6">
         <f t="shared" si="26"/>
-        <v>-1.1886446886446886</v>
+        <v>-1.3876923076923076</v>
       </c>
       <c r="K253" t="e">
         <f t="shared" si="27"/>
@@ -55194,7 +55957,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>-1523</v>
+        <v>-1785</v>
       </c>
       <c r="G254" s="4">
         <f t="shared" si="23"/>
@@ -55210,7 +55973,7 @@
       </c>
       <c r="J254" s="6">
         <f t="shared" si="26"/>
-        <v>-1.2273260073260073</v>
+        <v>-1.4384615384615385</v>
       </c>
       <c r="K254" t="e">
         <f t="shared" si="27"/>
@@ -55232,7 +55995,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>-1560</v>
+        <v>-1829</v>
       </c>
       <c r="G255" s="4">
         <f t="shared" si="23"/>
@@ -55248,7 +56011,7 @@
       </c>
       <c r="J255" s="6">
         <f t="shared" si="26"/>
-        <v>-1.2571428571428571</v>
+        <v>-1.4739194139194138</v>
       </c>
       <c r="K255" t="e">
         <f t="shared" si="27"/>
@@ -55270,7 +56033,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>-1576</v>
+        <v>-1859</v>
       </c>
       <c r="G256" s="4">
         <f t="shared" si="23"/>
@@ -55286,7 +56049,7 @@
       </c>
       <c r="J256" s="6">
         <f t="shared" si="26"/>
-        <v>-1.2700366300366299</v>
+        <v>-1.4980952380952381</v>
       </c>
       <c r="K256" t="e">
         <f t="shared" si="27"/>
@@ -55308,7 +56071,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>-1581</v>
+        <v>-1871</v>
       </c>
       <c r="G257" s="4">
         <f t="shared" si="23"/>
@@ -55324,7 +56087,7 @@
       </c>
       <c r="J257" s="6">
         <f t="shared" si="26"/>
-        <v>-1.2740659340659339</v>
+        <v>-1.5077655677655677</v>
       </c>
       <c r="K257" t="e">
         <f t="shared" si="27"/>
@@ -55346,7 +56109,7 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>-1572</v>
+        <v>-1863</v>
       </c>
       <c r="G258" s="4">
         <f t="shared" si="23"/>
@@ -55362,7 +56125,7 @@
       </c>
       <c r="J258" s="6">
         <f t="shared" si="26"/>
-        <v>-1.2668131868131867</v>
+        <v>-1.5013186813186812</v>
       </c>
       <c r="K258" t="e">
         <f t="shared" si="27"/>
@@ -55376,6 +56139,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report Helper Documents/Testing.xlsx
+++ b/Report Helper Documents/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4022S/EEE4022S_Salinity_JCP24-03/Report Helper Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BE80B-69CA-B444-90EB-082C63086FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451095A-AA80-8241-AE5D-E099496ABF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1940" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{CC746ED0-B61A-5B42-A9B2-4A328CF3FB68}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Range" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -45026,7 +45026,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45218,23 +45218,23 @@
         <v>2133</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F22" si="0">B4*3.3/1023</f>
+        <f t="shared" ref="F4:F12" si="0">B4*3.3/1023</f>
         <v>1.6516129032258065</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G22" si="1">C4*3.3/4095</f>
+        <f t="shared" ref="G4:G12" si="1">C4*3.3/4095</f>
         <v>1.6447619047619046</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H22" si="2">D4*3.3/4095</f>
+        <f t="shared" ref="H4:H12" si="2">D4*3.3/4095</f>
         <v>0.94608058608058598</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I22" si="3">E4*3.3/4095</f>
+        <f t="shared" ref="I4:I12" si="3">E4*3.3/4095</f>
         <v>1.7189010989010989</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J22" si="4">I4/H4</f>
+        <f t="shared" ref="J4:J12" si="4">I4/H4</f>
         <v>1.8168654173764909</v>
       </c>
       <c r="Q4" t="s">
@@ -46177,7 +46177,7 @@
   <dimension ref="A1:AB258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
